--- a/railroad_diagrams.xlsx
+++ b/railroad_diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishu\Documents\cobol code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97EB1B2-38AC-4BE6-AB1E-90F24516B2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2572BD3-C227-4012-82C7-D7D05F6FDF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -674,7 +674,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/railroad_diagrams.xlsx
+++ b/railroad_diagrams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishu\Documents\cobol code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2572BD3-C227-4012-82C7-D7D05F6FDF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAEB684-4A82-4FF4-9D97-3A4237859252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,120 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="443.8775276422501px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 443.8775276422501 51.13888931274414" height="51.13888931274414px" class="syntaxdiagram" fill="currentColor"&gt;&lt;defs&gt;&lt;style type="text/css" xml:space="preserve"&gt;
-.arrow, .syntaxarrow { fill: none; stroke: black; }
-.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
-.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
-rect { fill: none; stroke: none; }
-rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
-text {
-fill: #000000;
-fill-opacity: 1;
-font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
-font-style: normal;
-font-weight: normal;
-font-size: 8pt;
-stroke: #000000;
-stroke-width: 0.1;
-}
-text.var, text.syntaxvar {font-style:italic;}
-&lt;/style&gt;&lt;/defs&gt;&lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;&lt;g transform="translate(10,9.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;SEND&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="35.345143222808844" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(60.345143222808844,9.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;FROM(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(33.20929613113403,3)"&gt;&lt;text class="syntaxvar"&gt; data-area&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(84.46824464797973,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="95.34480706453323" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(170.68995028734207,9.10763931274414)" class="groupchoice"&gt;&lt;g transform="translate(23.129676437377938,0)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;LENGTH(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(44.92178249359131,3)"&gt;&lt;text class="syntaxvar"&gt; data-value&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(100.4792085647583,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="111.35577098131179" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(20,23.56944465637207)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;FLENGTH(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(51.18113536834717,3)"&gt;&lt;text class="syntaxvar"&gt; data-value&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(106.73856143951417,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="117.61512385606767" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="23.129676437377938" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartChoice" points="23.129676437377938,0 18.129676437377938,2.5 18.129676437377938,-2.5" transform="rotate(0,23.129676437377938,0)"&gt;&lt;/polygon&gt;&lt;line y2="0" x1="134.48544741868972" x2="157.61512385606767" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="152.61512385606767,0 147.61512385606767,2.5 147.61512385606767,-2.5" transform="rotate(0,152.61512385606767,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 18.56944465637207 Q5 23.56944465637207 10 23.56944465637207 L20 23.56944465637207"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,23.56944465637207 15,26.06944465637207 15,21.06944465637207" transform="rotate(0,20,23.56944465637207)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M137.61512385606767 23.56944465637207 L147.61512385606767 23.56944465637207 Q152.61512385606767 23.56944465637207 152.61512385606767 18.56944465637207 L152.61512385606767 5 Q152.61512385606767 0 157.61512385606767 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="152.61512385606767,5 147.61512385606767,7.5 147.61512385606767,2.5" transform="rotate(-90,152.61512385606767,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(343.30507414340974,9.10763931274414)" class="groupseq"&gt;&lt;g transform="translate(0,0)"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,19.44444465637207)" class="boxed syntaxkwd"&gt;&lt;g class="text" transform="translate(4,3)"&gt;&lt;text class="syntaxkwd"&gt;WAIT&lt;/text&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="35.57245349884033" height="15.44444465637207" y="-8.44444465637207" class="syntaxkwd"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="37.786226749420166" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="37.786226749420166" x2="75.57245349884033" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="70.57245349884033,0 65.57245349884033,2.5 65.57245349884033,-2.5" transform="rotate(0,70.57245349884033,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.44444465637207 Q5 19.44444465637207 10 19.44444465637207 L20 19.44444465637207"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,19.44444465637207 15,21.94444465637207 15,16.94444465637207" transform="rotate(0,20,19.44444465637207)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M55.57245349884033 19.44444465637207 L65.57245349884033 19.44444465637207 Q70.57245349884033 19.44444465637207 70.57245349884033 14.44444465637207 L70.57245349884033 5 Q70.57245349884033 0 75.57245349884033 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="70.57245349884033,5 65.57245349884033,7.5 65.57245349884033,2.5" transform="rotate(-90,70.57245349884033,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/g&gt;&lt;polygon class="arrowheadStartEnd" points="0,9.10763931274414 -5,11.60763931274414 -5,6.607639312744141" transform="rotate(0,0,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="5,9.10763931274414 0,11.60763931274414 0,6.607639312744141" transform="rotate(0,5,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;line y2="9.10763931274414" x1="45.345143222808844" x2="60.345143222808844" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="60.345143222808844,9.10763931274414 55.345143222808844,11.60763931274414 55.345143222808844,6.607639312744141" transform="rotate(0,60.345143222808844,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="155.68995028734207" x2="170.68995028734207" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="170.68995028734207,9.10763931274414 165.68995028734207,11.60763931274414 165.68995028734207,6.607639312744141" transform="rotate(0,170.68995028734207,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="328.30507414340974" x2="343.30507414340974" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="343.30507414340974,9.10763931274414 338.30507414340974,11.60763931274414 338.30507414340974,6.607639312744141" transform="rotate(0,343.30507414340974,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="418.8775276422501" x2="428.8775276422501" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="428.8775276422501,9.10763931274414 423.8775276422501,11.60763931274414 423.8775276422501,6.607639312744141" transform="rotate(0,428.8775276422501,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="428.8775276422501,9.10763931274414 423.8775276422501,11.60763931274414 423.8775276422501,6.607639312744141" transform="rotate(180,428.8775276422501,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/svg&gt;</t>
-  </si>
-  <si>
-    <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="443.88px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 443.8775276422501 51.13888931274414" height="51.14px" class="syntaxdiagram" fill="currentColor"&gt;
-  &lt;defs&gt;
-    &lt;style type="text/css" xml:space="preserve"&gt;
-.arrow, .syntaxarrow { fill: none; stroke: black; }
-.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
-.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
-rect { fill: none; stroke: none; }
-rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
-text {
-fill: #000000;
-fill-opacity: 1;
-font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
-font-style: normal;
-font-weight: normal;
-font-size: 8pt;
-stroke: #000000;
-stroke-width: 0.1;
-}
-text.var, text.syntaxvar {font-style:italic;}
-    &lt;/style&gt;
-  &lt;/defs&gt;
-  &lt;g transform="translate(5.0,5.0)" class="diagram" xml:base="..//"&gt;
-    &lt;g transform="translate(10.0,9.11)" class="boxed groupcomp"&gt;
-      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
-        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
-          &lt;text class="syntaxkwd"&gt;
-            SEND
-          &lt;/text&gt;
-        &lt;/g&gt;
-      &lt;/g&gt;
-      &lt;rect rx="3" x="0.0" width="35.35" height="15.7" y="-8.57" class="syntaxgroupcomp" /&gt;
-    &lt;/g&gt;
-    &lt;g transform="translate(60.35,9.11)" class="boxed groupcomp"&gt;
-      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
-        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
-          &lt;text class="syntaxkwd"&gt;
-            FROM( data-area)
-          &lt;/text&gt;
-        &lt;/g&gt;
-      &lt;/g&gt;
-      &lt;rect rx="3" x="0.0" width="95.34" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
-    &lt;/g&gt;
-    &lt;g transform="translate(170.69,9.11)" class="groupchoice"&gt;
-      &lt;g transform="translate(23.13,0.0)" class="boxed groupcomp"&gt;
-        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
-          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
-            &lt;text class="syntaxkwd"&gt;
-              LENGTH( data-value)
-            &lt;/text&gt;
-          &lt;/g&gt;
-        &lt;/g&gt;
-        &lt;rect rx="3" x="0.0" width="111.36" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
-      &lt;/g&gt;
-      &lt;g transform="translate(20.0,23.57)" class="boxed groupcomp"&gt;
-        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
-          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
-            &lt;text class="syntaxkwd"&gt;
-              FLENGTH( data-value)
-            &lt;/text&gt;
-          &lt;/g&gt;
-        &lt;/g&gt;
-        &lt;rect rx="3" x="0.0" width="117.62" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
-      &lt;/g&gt;
-      &lt;line y2="0.0" x1="0.0" x2="23.13" class="syntaxarrow" y1="0.0" /&gt;
-      &lt;line y2="0.0" x1="134.49" x2="157.62" class="syntaxarrow" y1="0.0" /&gt;
-      &lt;path class="syntaxarrow" d="M0.0,0.0 L5.0,0.0 L5.0,5.0 L5.0,18.57 L5.0,23.57 L10.0,23.57 L20.0,23.57" /&gt;
-      &lt;path class="syntaxarrow" d="M137.62,23.57 L147.62,23.57 L152.62,23.57 L152.62,18.57 L152.62,5.0 L152.62,0.0 L157.62,0.0" /&gt;
-    &lt;/g&gt;
-    &lt;g transform="translate(343.31,9.11)" class="groupseq"&gt;
-      &lt;g transform="translate(0.0,0.0)"&gt;
-        &lt;g /&gt;
-        &lt;g transform="translate(20.0,19.44)" class="boxed syntaxkwd"&gt;
-          &lt;g class="text" transform="translate(4.0,3.0)"&gt;
-            &lt;text class="syntaxkwd"&gt;
-              WAIT
-            &lt;/text&gt;
-          &lt;/g&gt;
-          &lt;rect rx="3" x="0.0" width="35.57" height="15.44" y="-8.44" class="syntaxkwd" /&gt;
-        &lt;/g&gt;
-        &lt;line y2="0.0" x1="0.0" x2="37.79" class="syntaxarrow" y1="0.0" /&gt;
-        &lt;line y2="0.0" x1="37.79" x2="75.57" class="syntaxarrow" y1="0.0" /&gt;
-        &lt;path class="syntaxarrow" d="M0.0,0.0 L5.0,0.0 L5.0,5.0 L5.0,14.44 L5.0,19.44 L10.0,19.44 L20.0,19.44" /&gt;
-        &lt;path class="syntaxarrow" d="M55.57,19.44 L65.57,19.44 L70.57,19.44 L70.57,14.44 L70.57,5.0 L70.57,0.0 L75.57,0.0" /&gt;
-      &lt;/g&gt;
-    &lt;/g&gt;
-    &lt;line y2="9.11" x1="0.0" x2="10.0" class="syntaxarrow" y1="9.11" /&gt;
-    &lt;line y2="9.11" x1="45.35" x2="60.35" class="syntaxarrow" y1="9.11" /&gt;
-    &lt;line y2="9.11" x1="155.69" x2="170.69" class="syntaxarrow" y1="9.11" /&gt;
-    &lt;line y2="9.11" x1="328.31" x2="343.31" class="syntaxarrow" y1="9.11" /&gt;
-    &lt;line y2="9.11" x1="418.88" x2="428.88" class="syntaxarrow" y1="9.11" /&gt;
-  &lt;/g&gt;
-&lt;/svg&gt;</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Original SVG</t>
+  </si>
+  <si>
+    <t>Original Formatted SVG</t>
+  </si>
+  <si>
+    <t>Original SVG Image</t>
+  </si>
+  <si>
+    <t>Simplified Formatted SVG</t>
+  </si>
+  <si>
+    <t>Simplified SVG Image</t>
   </si>
   <si>
     <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="274.17706500291825px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 274.17706500291825 110.54166793823242" height="110.54166793823242px" class="syntaxdiagram" fill="currentColor"&gt;&lt;defs&gt;&lt;style type="text/css" xml:space="preserve"&gt;
@@ -156,94 +60,6 @@
 &lt;/style&gt;&lt;/defs&gt;&lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;&lt;g transform="translate(10,26.70138931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;HANDLE ABEND&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="88.06121826171875" height="15.44444465637207" y="-8.44444465637207" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(113.06121826171875,26.70138931274414)" class="groupchoice"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(43.963547569513324,-18.128472328186035)" class="boxed syntaxkwd"&gt;&lt;g class="text" transform="translate(4,3)"&gt;&lt;text class="syntaxkwd"&gt;CANCEL&lt;/text&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="48.18875160217285" height="15.70138931274414" y="-8.572916984558105" class="syntaxkwd"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;PROGRAM(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(55.86165103912354,3)"&gt;&lt;text class="syntaxvar"&gt; name&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(85.23928432464601,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="96.1158467411995" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(32.132452917099,43.67708396911621)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;LABEL(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(35.00087985992432,3)"&gt;&lt;text class="syntaxvar"&gt; label&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(60.974378490448004,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="71.8509409070015" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(48.134441095590596,66.71180629730225)" class="boxed syntaxkwd"&gt;&lt;g class="text" transform="translate(4,3)"&gt;&lt;text class="syntaxkwd"&gt;RESET&lt;/text&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="39.84696455001831" height="15.70138931274414" y="-8.572916984558105" class="syntaxkwd"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="68.05792337059975" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="68.05792337059975" x2="136.1158467411995" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,0 126.1158467411995,2.5 126.1158467411995,-2.5" transform="rotate(0,131.1158467411995,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 -5 L5 -13.128472328186035 Q5 -18.128472328186035 10 -18.128472328186035 L43.963547569513324 -18.128472328186035"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="43.963547569513324,-18.128472328186035 38.963547569513324,-15.628472328186035 38.963547569513324,-20.628472328186035" transform="rotate(0,43.963547569513324,-18.128472328186035)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M92.15229917168618 -18.128472328186035 L126.1158467411995 -18.128472328186035 Q131.1158467411995 -18.128472328186035 131.1158467411995 -13.128472328186035 L131.1158467411995 -5 Q131.1158467411995 0 136.1158467411995 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,-5 126.1158467411995,-2.5 126.1158467411995,-7.5" transform="rotate(90,131.1158467411995,-5)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M116.1158467411995 20.10763931274414 L126.1158467411995 20.10763931274414 Q131.1158467411995 20.10763931274414 131.1158467411995 15.10763931274414 L131.1158467411995 5 Q131.1158467411995 0 136.1158467411995 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,5 126.1158467411995,7.5 126.1158467411995,2.5" transform="rotate(-90,131.1158467411995,5)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 38.67708396911621 Q5 43.67708396911621 10 43.67708396911621 L32.132452917099 43.67708396911621"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="32.132452917099,43.67708396911621 27.132452917099002,46.17708396911621 27.132452917099002,41.17708396911621" transform="rotate(0,32.132452917099,43.67708396911621)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M103.9833938241005 43.67708396911621 L126.1158467411995 43.67708396911621 Q131.1158467411995 43.67708396911621 131.1158467411995 38.67708396911621 L131.1158467411995 5 Q131.1158467411995 0 136.1158467411995 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,5 126.1158467411995,7.5 126.1158467411995,2.5" transform="rotate(-90,131.1158467411995,5)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 61.711806297302246 Q5 66.71180629730225 10 66.71180629730225 L48.134441095590596 66.71180629730225"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="48.134441095590596,66.71180629730225 43.134441095590596,69.21180629730225 43.134441095590596,64.21180629730225" transform="rotate(0,48.134441095590596,66.71180629730225)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M87.9814056456089 66.71180629730225 L126.1158467411995 66.71180629730225 Q131.1158467411995 66.71180629730225 131.1158467411995 61.711806297302246 L131.1158467411995 5 Q131.1158467411995 0 136.1158467411995 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,5 126.1158467411995,7.5 126.1158467411995,2.5" transform="rotate(-90,131.1158467411995,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;polygon class="arrowheadStartEnd" points="0,26.70138931274414 -5,29.20138931274414 -5,24.20138931274414" transform="rotate(0,0,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="5,26.70138931274414 0,29.20138931274414 0,24.20138931274414" transform="rotate(0,5,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;line y2="26.70138931274414" x1="0" x2="10" class="syntaxarrow" y1="26.70138931274414"&gt;&lt;/line&gt;&lt;line y2="26.70138931274414" x1="98.06121826171875" x2="113.06121826171875" class="syntaxarrow" y1="26.70138931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="113.06121826171875,26.70138931274414 108.06121826171875,29.20138931274414 108.06121826171875,24.20138931274414" transform="rotate(0,113.06121826171875,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;line y2="26.70138931274414" x1="249.17706500291825" x2="259.17706500291825" class="syntaxarrow" y1="26.70138931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="259.17706500291825,26.70138931274414 254.17706500291825,29.20138931274414 254.17706500291825,24.20138931274414" transform="rotate(0,259.17706500291825,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="259.17706500291825,26.70138931274414 254.17706500291825,29.20138931274414 254.17706500291825,24.20138931274414" transform="rotate(180,259.17706500291825,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/svg&gt;</t>
   </si>
   <si>
-    <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="274.18px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 274.17706500291825 110.54166793823242" height="110.54px" class="syntaxdiagram" fill="currentColor"&gt;
-  &lt;defs&gt;
-    &lt;style type="text/css" xml:space="preserve"&gt;
-.arrow, .syntaxarrow { fill: none; stroke: black; }
-.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
-.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
-rect { fill: none; stroke: none; }
-rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
-text {
-fill: #000000;
-fill-opacity: 1;
-font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
-font-style: normal;
-font-weight: normal;
-font-size: 8pt;
-stroke: #000000;
-stroke-width: 0.1;
-}
-text.var, text.syntaxvar {font-style:italic;}
-    &lt;/style&gt;
-  &lt;/defs&gt;
-  &lt;g transform="translate(5.0,5.0)" class="diagram" xml:base="..//"&gt;
-    &lt;g transform="translate(10.0,26.7)" class="boxed groupcomp"&gt;
-      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
-        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
-          &lt;text class="syntaxkwd"&gt;
-            HANDLE ABEND
-          &lt;/text&gt;
-        &lt;/g&gt;
-      &lt;/g&gt;
-      &lt;rect rx="3" x="0.0" width="88.06" height="15.44" y="-8.44" class="syntaxgroupcomp" /&gt;
-    &lt;/g&gt;
-    &lt;g transform="translate(113.06,26.7)" class="groupchoice"&gt;
-      &lt;g /&gt;
-      &lt;g transform="translate(43.96,-18.13)" class="boxed syntaxkwd"&gt;
-        &lt;g class="text" transform="translate(4.0,3.0)"&gt;
-          &lt;text class="syntaxkwd"&gt;
-            CANCEL
-          &lt;/text&gt;
-        &lt;/g&gt;
-        &lt;rect rx="3" x="0.0" width="48.19" height="15.7" y="-8.57" class="syntaxkwd" /&gt;
-      &lt;/g&gt;
-      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
-        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
-          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
-            &lt;text class="syntaxkwd"&gt;
-              PROGRAM( name)
-            &lt;/text&gt;
-          &lt;/g&gt;
-        &lt;/g&gt;
-        &lt;rect rx="3" x="0.0" width="96.12" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
-      &lt;/g&gt;
-      &lt;g transform="translate(32.13,43.68)" class="boxed groupcomp"&gt;
-        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
-          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
-            &lt;text class="syntaxkwd"&gt;
-              LABEL( label)
-            &lt;/text&gt;
-          &lt;/g&gt;
-        &lt;/g&gt;
-        &lt;rect rx="3" x="0.0" width="71.85" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
-      &lt;/g&gt;
-      &lt;g transform="translate(48.13,66.71)" class="boxed syntaxkwd"&gt;
-        &lt;g class="text" transform="translate(4.0,3.0)"&gt;
-          &lt;text class="syntaxkwd"&gt;
-            RESET
-          &lt;/text&gt;
-        &lt;/g&gt;
-        &lt;rect rx="3" x="0.0" width="39.85" height="15.7" y="-8.57" class="syntaxkwd" /&gt;
-      &lt;/g&gt;
-      &lt;line y2="0.0" x1="0.0" x2="68.06" class="syntaxarrow" y1="0.0" /&gt;
-      &lt;line y2="0.0" x1="68.06" x2="136.12" class="syntaxarrow" y1="0.0" /&gt;
-      &lt;path class="syntaxarrow" d="M0.0,0.0 L5.0,0.0 L5.0,-5.0 L5.0,-13.13 L5.0,-18.13 L10.0,-18.13 L43.96,-18.13" /&gt;
-      &lt;path class="syntaxarrow" d="M92.15,-18.13 L126.12,-18.13 L131.12,-18.13 L131.12,-13.13 L131.12,-5.0 L131.12,0.0 L136.12,0.0" /&gt;
-      &lt;path class="syntaxarrow" d="M0.0,0.0 L5.0,0.0 L5.0,5.0 L5.0,15.11 L5.0,20.11 L10.0,20.11 L20.0,20.11" /&gt;
-      &lt;path class="syntaxarrow" d="M116.12,20.11 L126.12,20.11 L131.12,20.11 L131.12,15.11 L131.12,5.0 L131.12,0.0 L136.12,0.0" /&gt;
-      &lt;path class="syntaxarrow" d="M0.0,0.0 L5.0,0.0 L5.0,5.0 L5.0,38.68 L5.0,43.68 L10.0,43.68 L32.13,43.68" /&gt;
-      &lt;path class="syntaxarrow" d="M103.98,43.68 L126.12,43.68 L131.12,43.68 L131.12,38.68 L131.12,5.0 L131.12,0.0 L136.12,0.0" /&gt;
-      &lt;path class="syntaxarrow" d="M0.0,0.0 L5.0,0.0 L5.0,5.0 L5.0,61.71 L5.0,66.71 L10.0,66.71 L48.13,66.71" /&gt;
-      &lt;path class="syntaxarrow" d="M87.98,66.71 L126.12,66.71 L131.12,66.71 L131.12,61.71 L131.12,5.0 L131.12,0.0 L136.12,0.0" /&gt;
-    &lt;/g&gt;
-    &lt;line y2="26.7" x1="0.0" x2="10.0" class="syntaxarrow" y1="26.7" /&gt;
-    &lt;line y2="26.7" x1="98.06" x2="113.06" class="syntaxarrow" y1="26.7" /&gt;
-    &lt;line y2="26.7" x1="249.18" x2="259.18" class="syntaxarrow" y1="26.7" /&gt;
-  &lt;/g&gt;
-&lt;/svg&gt;</t>
-  </si>
-  <si>
     <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="255.74684123992918px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 255.74684123992918 57.128472328186035" height="57.128472328186035px" class="syntaxdiagram" fill="currentColor"&gt;&lt;defs&gt;&lt;style type="text/css" xml:space="preserve"&gt;
 .arrow, .syntaxarrow { fill: none; stroke: black; }
 .arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
@@ -262,61 +78,6 @@
 }
 text.var, text.syntaxvar {font-style:italic;}
 &lt;/style&gt;&lt;/defs&gt;&lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;&lt;g transform="translate(10,40)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;IGNORE CONDITION&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="112.24972648620606" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(137.24972648620604,40)" class="groupseq"&gt;&lt;g transform="translate(19.999999999999996,0)" class="groupseq"&gt;&lt;g transform="translate(0,0)" class="boxed syntaxkwd"&gt;&lt;g class="text" transform="translate(4,3)"&gt;&lt;text class="syntaxkwd"&gt;condition&lt;/text&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="53.497114753723146" height="16.020833015441895" y="-8.892361164093018" class="syntaxkwd"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="19.999999999999996" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartRepGroup" points="19.999999999999996,0 14.999999999999996,2.5 14.999999999999996,-2.5" transform="rotate(0,19.999999999999996,0)"&gt;&lt;/polygon&gt;&lt;line y2="0" x1="73.49711475372314" x2="93.49711475372314" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadEndRepGroup" points="83.49711475372314,0 78.49711475372314,2.5 78.49711475372314,-2.5" transform="rotate(0,83.49711475372314,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M83.49711475372314 0 Q93.49711475372314 0 93.49711475372314 -10 L93.49711475372314 -25 Q93.49711475372314 -35 83.49711475372314 -35 L46.74855737686157,-35"&gt;&lt;/path&gt;&lt;polygon class="arrowheadRepSep" points="46.74855737686157,-35 41.74855737686157,-32.5 41.74855737686157,-37.5" transform="rotate(180,46.74855737686157,-35)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M46.74855737686157 -35 L10 -35 Q0 -35 0 -25 L0 -10 Q0 0 10 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadRepSepReturn" points="0,-10 -5,-7.5 -5,-12.5" transform="rotate(90,0,-10)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;polygon class="arrowheadStartEnd" points="0,40 -5,42.5 -5,37.5" transform="rotate(0,0,40)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="5,40 0,42.5 0,37.5" transform="rotate(0,5,40)"&gt;&lt;/polygon&gt;&lt;line y2="40" x1="0" x2="10" class="syntaxarrow" y1="40"&gt;&lt;/line&gt;&lt;line y2="40" x1="122.24972648620606" x2="137.24972648620604" class="syntaxarrow" y1="40"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="137.24972648620604,40 132.24972648620604,42.5 132.24972648620604,37.5" transform="rotate(0,137.24972648620604,40)"&gt;&lt;/polygon&gt;&lt;line y2="40" x1="230.74684123992918" x2="240.74684123992918" class="syntaxarrow" y1="40"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="240.74684123992918,40 235.74684123992918,42.5 235.74684123992918,37.5" transform="rotate(0,240.74684123992918,40)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="240.74684123992918,40 235.74684123992918,42.5 235.74684123992918,37.5" transform="rotate(180,240.74684123992918,40)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/svg&gt;</t>
-  </si>
-  <si>
-    <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="255.75px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 255.74684123992918 57.128472328186035" height="57.13px" class="syntaxdiagram" fill="currentColor"&gt;
-  &lt;defs&gt;
-    &lt;style type="text/css" xml:space="preserve"&gt;
-.arrow, .syntaxarrow { fill: none; stroke: black; }
-.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
-.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
-rect { fill: none; stroke: none; }
-rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
-text {
-fill: #000000;
-fill-opacity: 1;
-font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
-font-style: normal;
-font-weight: normal;
-font-size: 8pt;
-stroke: #000000;
-stroke-width: 0.1;
-}
-text.var, text.syntaxvar {font-style:italic;}
-    &lt;/style&gt;
-  &lt;/defs&gt;
-  &lt;g transform="translate(5.0,5.0)" class="diagram" xml:base="..//"&gt;
-    &lt;g transform="translate(10.0,40.0)" class="boxed groupcomp"&gt;
-      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
-        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
-          &lt;text class="syntaxkwd"&gt;
-            IGNORE CONDITION
-          &lt;/text&gt;
-        &lt;/g&gt;
-      &lt;/g&gt;
-      &lt;rect rx="3" x="0.0" width="112.25" height="15.7" y="-8.57" class="syntaxgroupcomp" /&gt;
-    &lt;/g&gt;
-    &lt;g transform="translate(137.25,40.0)" class="groupseq"&gt;
-      &lt;g transform="translate(20.0,0.0)" class="groupseq"&gt;
-        &lt;g transform="translate(0.0,0.0)" class="boxed syntaxkwd"&gt;
-          &lt;g class="text" transform="translate(4.0,3.0)"&gt;
-            &lt;text class="syntaxkwd"&gt;
-              condition
-            &lt;/text&gt;
-          &lt;/g&gt;
-          &lt;rect rx="3" x="0.0" width="53.5" height="16.02" y="-8.89" class="syntaxkwd" /&gt;
-        &lt;/g&gt;
-      &lt;/g&gt;
-      &lt;line y2="0.0" x1="0.0" x2="20.0" class="syntaxarrow" y1="0.0" /&gt;
-      &lt;line y2="0.0" x1="73.5" x2="93.5" class="syntaxarrow" y1="0.0" /&gt;
-      &lt;path class="syntaxarrow" d="M83.5,0.0 L93.5,0.0 L93.5,-10.0 L93.5,-25.0 L93.5,-35.0 L83.5,-35.0 L46.75,-35.0" /&gt;
-      &lt;path class="syntaxarrow" d="M46.75,-35.0 L10.0,-35.0 L0.0,-35.0 L0.0,-25.0 L0.0,-10.0 L0.0,0.0 L10.0,0.0" /&gt;
-    &lt;/g&gt;
-    &lt;line y2="40.0" x1="0.0" x2="10.0" class="syntaxarrow" y1="40.0" /&gt;
-    &lt;line y2="40.0" x1="122.25" x2="137.25" class="syntaxarrow" y1="40.0" /&gt;
-    &lt;line y2="40.0" x1="230.75" x2="240.75" class="syntaxarrow" y1="40.0" /&gt;
-  &lt;/g&gt;
-&lt;/svg&gt;</t>
   </si>
 </sst>
 </file>
@@ -671,37 +432,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/railroad_diagrams.xlsx
+++ b/railroad_diagrams.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishu\Documents\cobol code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAEB684-4A82-4FF4-9D97-3A4237859252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB4BEF3-6276-43EF-9739-5DD4F2EE042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Diagrams" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Command</t>
   </si>
@@ -40,7 +40,10 @@
     <t>Simplified SVG Image</t>
   </si>
   <si>
-    <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="274.17706500291825px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 274.17706500291825 110.54166793823242" height="110.54166793823242px" class="syntaxdiagram" fill="currentColor"&gt;&lt;defs&gt;&lt;style type="text/css" xml:space="preserve"&gt;
+    <t>HANDLE ABEND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="274.17706500291825px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 274.17706500291825 110.54166793823242" height="110.54166793823242px" class="syntaxdiagram" fill="currentColor"&gt;&lt;defs&gt;&lt;style type="text/css" xml:space="preserve"&gt;
 .arrow, .syntaxarrow { fill: none; stroke: black; }
 .arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
 .arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
@@ -57,7 +60,247 @@
 stroke-width: 0.1;
 }
 text.var, text.syntaxvar {font-style:italic;}
-&lt;/style&gt;&lt;/defs&gt;&lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;&lt;g transform="translate(10,26.70138931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;HANDLE ABEND&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="88.06121826171875" height="15.44444465637207" y="-8.44444465637207" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(113.06121826171875,26.70138931274414)" class="groupchoice"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(43.963547569513324,-18.128472328186035)" class="boxed syntaxkwd"&gt;&lt;g class="text" transform="translate(4,3)"&gt;&lt;text class="syntaxkwd"&gt;CANCEL&lt;/text&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="48.18875160217285" height="15.70138931274414" y="-8.572916984558105" class="syntaxkwd"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;PROGRAM(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(55.86165103912354,3)"&gt;&lt;text class="syntaxvar"&gt; name&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(85.23928432464601,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="96.1158467411995" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(32.132452917099,43.67708396911621)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;LABEL(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(35.00087985992432,3)"&gt;&lt;text class="syntaxvar"&gt; label&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(60.974378490448004,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="71.8509409070015" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(48.134441095590596,66.71180629730225)" class="boxed syntaxkwd"&gt;&lt;g class="text" transform="translate(4,3)"&gt;&lt;text class="syntaxkwd"&gt;RESET&lt;/text&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="39.84696455001831" height="15.70138931274414" y="-8.572916984558105" class="syntaxkwd"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="68.05792337059975" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="68.05792337059975" x2="136.1158467411995" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,0 126.1158467411995,2.5 126.1158467411995,-2.5" transform="rotate(0,131.1158467411995,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 -5 L5 -13.128472328186035 Q5 -18.128472328186035 10 -18.128472328186035 L43.963547569513324 -18.128472328186035"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="43.963547569513324,-18.128472328186035 38.963547569513324,-15.628472328186035 38.963547569513324,-20.628472328186035" transform="rotate(0,43.963547569513324,-18.128472328186035)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M92.15229917168618 -18.128472328186035 L126.1158467411995 -18.128472328186035 Q131.1158467411995 -18.128472328186035 131.1158467411995 -13.128472328186035 L131.1158467411995 -5 Q131.1158467411995 0 136.1158467411995 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,-5 126.1158467411995,-2.5 126.1158467411995,-7.5" transform="rotate(90,131.1158467411995,-5)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M116.1158467411995 20.10763931274414 L126.1158467411995 20.10763931274414 Q131.1158467411995 20.10763931274414 131.1158467411995 15.10763931274414 L131.1158467411995 5 Q131.1158467411995 0 136.1158467411995 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,5 126.1158467411995,7.5 126.1158467411995,2.5" transform="rotate(-90,131.1158467411995,5)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 38.67708396911621 Q5 43.67708396911621 10 43.67708396911621 L32.132452917099 43.67708396911621"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="32.132452917099,43.67708396911621 27.132452917099002,46.17708396911621 27.132452917099002,41.17708396911621" transform="rotate(0,32.132452917099,43.67708396911621)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M103.9833938241005 43.67708396911621 L126.1158467411995 43.67708396911621 Q131.1158467411995 43.67708396911621 131.1158467411995 38.67708396911621 L131.1158467411995 5 Q131.1158467411995 0 136.1158467411995 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,5 126.1158467411995,7.5 126.1158467411995,2.5" transform="rotate(-90,131.1158467411995,5)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 61.711806297302246 Q5 66.71180629730225 10 66.71180629730225 L48.134441095590596 66.71180629730225"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="48.134441095590596,66.71180629730225 43.134441095590596,69.21180629730225 43.134441095590596,64.21180629730225" transform="rotate(0,48.134441095590596,66.71180629730225)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M87.9814056456089 66.71180629730225 L126.1158467411995 66.71180629730225 Q131.1158467411995 66.71180629730225 131.1158467411995 61.711806297302246 L131.1158467411995 5 Q131.1158467411995 0 136.1158467411995 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,5 126.1158467411995,7.5 126.1158467411995,2.5" transform="rotate(-90,131.1158467411995,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;polygon class="arrowheadStartEnd" points="0,26.70138931274414 -5,29.20138931274414 -5,24.20138931274414" transform="rotate(0,0,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="5,26.70138931274414 0,29.20138931274414 0,24.20138931274414" transform="rotate(0,5,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;line y2="26.70138931274414" x1="0" x2="10" class="syntaxarrow" y1="26.70138931274414"&gt;&lt;/line&gt;&lt;line y2="26.70138931274414" x1="98.06121826171875" x2="113.06121826171875" class="syntaxarrow" y1="26.70138931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="113.06121826171875,26.70138931274414 108.06121826171875,29.20138931274414 108.06121826171875,24.20138931274414" transform="rotate(0,113.06121826171875,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;line y2="26.70138931274414" x1="249.17706500291825" x2="259.17706500291825" class="syntaxarrow" y1="26.70138931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="259.17706500291825,26.70138931274414 254.17706500291825,29.20138931274414 254.17706500291825,24.20138931274414" transform="rotate(0,259.17706500291825,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="259.17706500291825,26.70138931274414 254.17706500291825,29.20138931274414 254.17706500291825,24.20138931274414" transform="rotate(180,259.17706500291825,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/svg&gt;</t>
+&lt;/style&gt;&lt;/defs&gt;&lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;&lt;g transform="translate(10,26.70138931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;HANDLE ABEND&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="88.06121826171875" height="15.44444465637207" y="-8.44444465637207" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(113.06121826171875,26.70138931274414)" class="groupchoice"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(43.963547569513324,-18.128472328186035)" class="boxed syntaxkwd"&gt;&lt;g class="text" transform="translate(4,3)"&gt;&lt;text class="syntaxkwd"&gt;CANCEL&lt;/text&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="48.18875160217285" height="15.70138931274414" y="-8.572916984558105" class="syntaxkwd"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;PROGRAM(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(55.86165103912354,3)"&gt;&lt;text class="syntaxvar"&gt; name&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(85.23928432464601,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="96.1158467411995" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(32.132452917099,43.67708396911621)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;LABEL(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(35.00087985992432,3)"&gt;&lt;text class="syntaxvar"&gt; label&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(60.974378490448004,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="71.8509409070015" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(48.134441095590596,66.71180629730225)" class="boxed syntaxkwd"&gt;&lt;g class="text" transform="translate(4,3)"&gt;&lt;text class="syntaxkwd"&gt;RESET&lt;/text&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="39.84696455001831" height="15.70138931274414" y="-8.572916984558105" class="syntaxkwd"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="68.05792337059975" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="68.05792337059975" x2="136.1158467411995" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,0 126.1158467411995,2.5 126.1158467411995,-2.5" transform="rotate(0,131.1158467411995,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 -5 L5 -13.128472328186035 Q5 -18.128472328186035 10 -18.128472328186035 L43.963547569513324 -18.128472328186035"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="43.963547569513324,-18.128472328186035 38.963547569513324,-15.628472328186035 38.963547569513324,-20.628472328186035" transform="rotate(0,43.963547569513324,-18.128472328186035)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M92.15229917168618 -18.128472328186035 L126.1158467411995 -18.128472328186035 Q131.1158467411995 -18.128472328186035 131.1158467411995 -13.128472328186035 L131.1158467411995 -5 Q131.1158467411995 0 136.1158467411995 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,-5 126.1158467411995,-2.5 126.1158467411995,-7.5" transform="rotate(90,131.1158467411995,-5)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M116.1158467411995 20.10763931274414 L126.1158467411995 20.10763931274414 Q131.1158467411995 20.10763931274414 131.1158467411995 15.10763931274414 L131.1158467411995 5 Q131.1158467411995 0 136.1158467411995 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,5 126.1158467411995,7.5 126.1158467411995,2.5" transform="rotate(-90,131.1158467411995,5)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 38.67708396911621 Q5 43.67708396911621 10 43.67708396911621 L32.132452917099 43.67708396911621"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="32.132452917099,43.67708396911621 27.132452917099002,46.17708396911621 27.132452917099002,41.17708396911621" transform="rotate(0,32.132452917099,43.67708396911621)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M103.9833938241005 43.67708396911621 L126.1158467411995 43.67708396911621 Q131.1158467411995 43.67708396911621 131.1158467411995 38.67708396911621 L131.1158467411995 5 Q131.1158467411995 0 136.1158467411995 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,5 126.1158467411995,7.5 126.1158467411995,2.5" transform="rotate(-90,131.1158467411995,5)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 61.711806297302246 Q5 66.71180629730225 10 66.71180629730225 L48.134441095590596 66.71180629730225"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="48.134441095590596,66.71180629730225 43.134441095590596,69.21180629730225 43.134441095590596,64.21180629730225" transform="rotate(0,48.134441095590596,66.71180629730225)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M87.9814056456089 66.71180629730225 L126.1158467411995 66.71180629730225 Q131.1158467411995 66.71180629730225 131.1158467411995 61.711806297302246 L131.1158467411995 5 Q131.1158467411995 0 136.1158467411995 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,5 126.1158467411995,7.5 126.1158467411995,2.5" transform="rotate(-90,131.1158467411995,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;polygon class="arrowheadStartEnd" points="0,26.70138931274414 -5,29.20138931274414 -5,24.20138931274414" transform="rotate(0,0,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="5,26.70138931274414 0,29.20138931274414 0,24.20138931274414" transform="rotate(0,5,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;line y2="26.70138931274414" x1="0" x2="10" class="syntaxarrow" y1="26.70138931274414"&gt;&lt;/line&gt;&lt;line y2="26.70138931274414" x1="98.06121826171875" x2="113.06121826171875" class="syntaxarrow" y1="26.70138931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="113.06121826171875,26.70138931274414 108.06121826171875,29.20138931274414 108.06121826171875,24.20138931274414" transform="rotate(0,113.06121826171875,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;line y2="26.70138931274414" x1="249.17706500291825" x2="259.17706500291825" class="syntaxarrow" y1="26.70138931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="259.17706500291825,26.70138931274414 254.17706500291825,29.20138931274414 254.17706500291825,24.20138931274414" transform="rotate(0,259.17706500291825,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="259.17706500291825,26.70138931274414 254.17706500291825,29.20138931274414 254.17706500291825,24.20138931274414" transform="rotate(180,259.17706500291825,26.70138931274414)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/svg&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="274.17706500291825px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 274.17706500291825 110.54166793823242" height="110.54166793823242px" class="syntaxdiagram" fill="currentColor"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10,26.70138931274414)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0,3)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            HANDLE ABEND
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3" x="0" width="88.06121826171875" height="15.44444465637207" y="-8.44444465637207" class="syntaxgroupcomp"&gt;
+      &lt;/rect&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(113.06121826171875,26.70138931274414)" class="groupchoice"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(43.963547569513324,-18.128472328186035)" class="boxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(4,3)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            CANCEL
+          &lt;/text&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="48.18875160217285" height="15.70138931274414" y="-8.572916984558105" class="syntaxkwd"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              PROGRAM(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(55.86165103912354,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               name
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(85.23928432464601,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="96.1158467411995" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(32.132452917099,43.67708396911621)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              LABEL(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(35.00087985992432,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               label
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(60.974378490448004,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="71.8509409070015" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(48.134441095590596,66.71180629730225)" class="boxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(4,3)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            RESET
+          &lt;/text&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="39.84696455001831" height="15.70138931274414" y="-8.572916984558105" class="syntaxkwd"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="68.05792337059975" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="68.05792337059975" x2="136.1158467411995" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,0 126.1158467411995,2.5 126.1158467411995,-2.5" transform="rotate(0,131.1158467411995,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 -5 L5 -13.128472328186035 Q5 -18.128472328186035 10 -18.128472328186035 L43.963547569513324 -18.128472328186035"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="43.963547569513324,-18.128472328186035 38.963547569513324,-15.628472328186035 38.963547569513324,-20.628472328186035" transform="rotate(0,43.963547569513324,-18.128472328186035)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M92.15229917168618 -18.128472328186035 L126.1158467411995 -18.128472328186035 Q131.1158467411995 -18.128472328186035 131.1158467411995 -13.128472328186035 L131.1158467411995 -5 Q131.1158467411995 0 136.1158467411995 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,-5 126.1158467411995,-2.5 126.1158467411995,-7.5" transform="rotate(90,131.1158467411995,-5)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M116.1158467411995 20.10763931274414 L126.1158467411995 20.10763931274414 Q131.1158467411995 20.10763931274414 131.1158467411995 15.10763931274414 L131.1158467411995 5 Q131.1158467411995 0 136.1158467411995 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,5 126.1158467411995,7.5 126.1158467411995,2.5" transform="rotate(-90,131.1158467411995,5)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 38.67708396911621 Q5 43.67708396911621 10 43.67708396911621 L32.132452917099 43.67708396911621"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="32.132452917099,43.67708396911621 27.132452917099002,46.17708396911621 27.132452917099002,41.17708396911621" transform="rotate(0,32.132452917099,43.67708396911621)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M103.9833938241005 43.67708396911621 L126.1158467411995 43.67708396911621 Q131.1158467411995 43.67708396911621 131.1158467411995 38.67708396911621 L131.1158467411995 5 Q131.1158467411995 0 136.1158467411995 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,5 126.1158467411995,7.5 126.1158467411995,2.5" transform="rotate(-90,131.1158467411995,5)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 61.711806297302246 Q5 66.71180629730225 10 66.71180629730225 L48.134441095590596 66.71180629730225"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="48.134441095590596,66.71180629730225 43.134441095590596,69.21180629730225 43.134441095590596,64.21180629730225" transform="rotate(0,48.134441095590596,66.71180629730225)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M87.9814056456089 66.71180629730225 L126.1158467411995 66.71180629730225 Q131.1158467411995 66.71180629730225 131.1158467411995 61.711806297302246 L131.1158467411995 5 Q131.1158467411995 0 136.1158467411995 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="131.1158467411995,5 126.1158467411995,7.5 126.1158467411995,2.5" transform="rotate(-90,131.1158467411995,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;polygon class="arrowheadStartEnd" points="0,26.70138931274414 -5,29.20138931274414 -5,24.20138931274414" transform="rotate(0,0,26.70138931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="5,26.70138931274414 0,29.20138931274414 0,24.20138931274414" transform="rotate(0,5,26.70138931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="26.70138931274414" x1="0" x2="10" class="syntaxarrow" y1="26.70138931274414"&gt;
+    &lt;/line&gt;
+    &lt;line y2="26.70138931274414" x1="98.06121826171875" x2="113.06121826171875" class="syntaxarrow" y1="26.70138931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="113.06121826171875,26.70138931274414 108.06121826171875,29.20138931274414 108.06121826171875,24.20138931274414" transform="rotate(0,113.06121826171875,26.70138931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="26.70138931274414" x1="249.17706500291825" x2="259.17706500291825" class="syntaxarrow" y1="26.70138931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadStartEnd" points="259.17706500291825,26.70138931274414 254.17706500291825,29.20138931274414 254.17706500291825,24.20138931274414" transform="rotate(0,259.17706500291825,26.70138931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="259.17706500291825,26.70138931274414 254.17706500291825,29.20138931274414 254.17706500291825,24.20138931274414" transform="rotate(180,259.17706500291825,26.70138931274414)"&gt;
+    &lt;/polygon&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="274.18px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 274.17706500291825 110.54166793823242" height="110.54px" class="syntaxdiagram" fill="currentColor"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5.0,5.0)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10.0,26.7)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            HANDLE ABEND
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3.0" x="0.0" width="88.06" height="15.44" y="-8.44" class="syntaxgroupcomp" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(113.06,26.7)" class="groupchoice"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(43.96,-18.13)" class="boxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(4.0,3.0)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            CANCEL
+          &lt;/text&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="48.19" height="15.7" y="-8.57" class="syntaxkwd" /&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              PROGRAM( name)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="96.12" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(32.13,43.68)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              LABEL( label)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="71.85" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(48.13,66.71)" class="boxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(4.0,3.0)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            RESET
+          &lt;/text&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="39.85" height="15.7" y="-8.57" class="syntaxkwd" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="68.05792337059975" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="68.05792337059975" x2="136.1158467411995" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 -5.0 L5.0 -13.13 Q5.0 -18.13 10.0 -18.13 L43.96 -18.13 M92.15 -18.13 L126.12 -18.13 Q131.12 -18.13 131.12 -13.13 L131.12 -5.0 Q131.12 0.0 136.12 0.0 M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M116.12 20.11 L126.12 20.11 Q131.12 20.11 131.12 15.11 L131.12 5.0 Q131.12 0.0 136.12 0.0 M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 38.68 Q5.0 43.68 10.0 43.68 L32.13 43.68 M103.98 43.68 L126.12 43.68 Q131.12 43.68 131.12 38.68 L131.12 5.0 Q131.12 0.0 136.12 0.0 M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 61.71 Q5.0 66.71 10.0 66.71 L48.13 66.71 M87.98 66.71 L126.12 66.71 Q131.12 66.71 131.12 61.71 L131.12 5.0 Q131.12 0.0 136.12 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;line y2="26.70138931274414" x1="0" x2="10" class="syntaxarrow" y1="26.70138931274414" /&gt;
+    &lt;line y2="26.70138931274414" x1="98.06121826171875" x2="113.06121826171875" class="syntaxarrow" y1="26.70138931274414" /&gt;
+    &lt;line y2="26.70138931274414" x1="249.17706500291825" x2="259.17706500291825" class="syntaxarrow" y1="26.70138931274414" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>IGNORE CONDITION</t>
   </si>
   <si>
     <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="255.74684123992918px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 255.74684123992918 57.128472328186035" height="57.128472328186035px" class="syntaxdiagram" fill="currentColor"&gt;&lt;defs&gt;&lt;style type="text/css" xml:space="preserve"&gt;
@@ -79,18 +322,2190 @@
 text.var, text.syntaxvar {font-style:italic;}
 &lt;/style&gt;&lt;/defs&gt;&lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;&lt;g transform="translate(10,40)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;IGNORE CONDITION&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="112.24972648620606" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(137.24972648620604,40)" class="groupseq"&gt;&lt;g transform="translate(19.999999999999996,0)" class="groupseq"&gt;&lt;g transform="translate(0,0)" class="boxed syntaxkwd"&gt;&lt;g class="text" transform="translate(4,3)"&gt;&lt;text class="syntaxkwd"&gt;condition&lt;/text&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="53.497114753723146" height="16.020833015441895" y="-8.892361164093018" class="syntaxkwd"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="19.999999999999996" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartRepGroup" points="19.999999999999996,0 14.999999999999996,2.5 14.999999999999996,-2.5" transform="rotate(0,19.999999999999996,0)"&gt;&lt;/polygon&gt;&lt;line y2="0" x1="73.49711475372314" x2="93.49711475372314" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadEndRepGroup" points="83.49711475372314,0 78.49711475372314,2.5 78.49711475372314,-2.5" transform="rotate(0,83.49711475372314,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M83.49711475372314 0 Q93.49711475372314 0 93.49711475372314 -10 L93.49711475372314 -25 Q93.49711475372314 -35 83.49711475372314 -35 L46.74855737686157,-35"&gt;&lt;/path&gt;&lt;polygon class="arrowheadRepSep" points="46.74855737686157,-35 41.74855737686157,-32.5 41.74855737686157,-37.5" transform="rotate(180,46.74855737686157,-35)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M46.74855737686157 -35 L10 -35 Q0 -35 0 -25 L0 -10 Q0 0 10 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadRepSepReturn" points="0,-10 -5,-7.5 -5,-12.5" transform="rotate(90,0,-10)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;polygon class="arrowheadStartEnd" points="0,40 -5,42.5 -5,37.5" transform="rotate(0,0,40)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="5,40 0,42.5 0,37.5" transform="rotate(0,5,40)"&gt;&lt;/polygon&gt;&lt;line y2="40" x1="0" x2="10" class="syntaxarrow" y1="40"&gt;&lt;/line&gt;&lt;line y2="40" x1="122.24972648620606" x2="137.24972648620604" class="syntaxarrow" y1="40"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="137.24972648620604,40 132.24972648620604,42.5 132.24972648620604,37.5" transform="rotate(0,137.24972648620604,40)"&gt;&lt;/polygon&gt;&lt;line y2="40" x1="230.74684123992918" x2="240.74684123992918" class="syntaxarrow" y1="40"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="240.74684123992918,40 235.74684123992918,42.5 235.74684123992918,37.5" transform="rotate(0,240.74684123992918,40)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="240.74684123992918,40 235.74684123992918,42.5 235.74684123992918,37.5" transform="rotate(180,240.74684123992918,40)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/svg&gt;</t>
   </si>
+  <si>
+    <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="255.74684123992918px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 255.74684123992918 57.128472328186035" height="57.128472328186035px" class="syntaxdiagram" fill="currentColor"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10,40)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0,3)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            IGNORE CONDITION
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3" x="0" width="112.24972648620606" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;
+      &lt;/rect&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(137.24972648620604,40)" class="groupseq"&gt;
+      &lt;g transform="translate(19.999999999999996,0)" class="groupseq"&gt;
+        &lt;g transform="translate(0,0)" class="boxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(4,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              condition
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;rect rx="3" x="0" width="53.497114753723146" height="16.020833015441895" y="-8.892361164093018" class="syntaxkwd"&gt;
+          &lt;/rect&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="19.999999999999996" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadStartRepGroup" points="19.999999999999996,0 14.999999999999996,2.5 14.999999999999996,-2.5" transform="rotate(0,19.999999999999996,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;line y2="0" x1="73.49711475372314" x2="93.49711475372314" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadEndRepGroup" points="83.49711475372314,0 78.49711475372314,2.5 78.49711475372314,-2.5" transform="rotate(0,83.49711475372314,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M83.49711475372314 0 Q93.49711475372314 0 93.49711475372314 -10 L93.49711475372314 -25 Q93.49711475372314 -35 83.49711475372314 -35 L46.74855737686157,-35"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadRepSep" points="46.74855737686157,-35 41.74855737686157,-32.5 41.74855737686157,-37.5" transform="rotate(180,46.74855737686157,-35)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M46.74855737686157 -35 L10 -35 Q0 -35 0 -25 L0 -10 Q0 0 10 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadRepSepReturn" points="0,-10 -5,-7.5 -5,-12.5" transform="rotate(90,0,-10)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;polygon class="arrowheadStartEnd" points="0,40 -5,42.5 -5,37.5" transform="rotate(0,0,40)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="5,40 0,42.5 0,37.5" transform="rotate(0,5,40)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="40" x1="0" x2="10" class="syntaxarrow" y1="40"&gt;
+    &lt;/line&gt;
+    &lt;line y2="40" x1="122.24972648620606" x2="137.24972648620604" class="syntaxarrow" y1="40"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="137.24972648620604,40 132.24972648620604,42.5 132.24972648620604,37.5" transform="rotate(0,137.24972648620604,40)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="40" x1="230.74684123992918" x2="240.74684123992918" class="syntaxarrow" y1="40"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadStartEnd" points="240.74684123992918,40 235.74684123992918,42.5 235.74684123992918,37.5" transform="rotate(0,240.74684123992918,40)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="240.74684123992918,40 235.74684123992918,42.5 235.74684123992918,37.5" transform="rotate(180,240.74684123992918,40)"&gt;
+    &lt;/polygon&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="255.75px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 255.74684123992918 57.128472328186035" height="57.13px" class="syntaxdiagram" fill="currentColor"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5.0,5.0)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10.0,40.0)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            IGNORE CONDITION
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3.0" x="0.0" width="112.25" height="15.7" y="-8.57" class="syntaxgroupcomp" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(137.25,40.0)" class="groupseq"&gt;
+      &lt;g transform="translate(20.0,0.0)" class="groupseq"&gt;
+        &lt;g transform="translate(0.0,0.0)" class="boxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(4.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              condition
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;rect rx="3.0" x="0.0" width="53.5" height="16.02" y="-8.89" class="syntaxkwd" /&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="19.999999999999996" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="73.49711475372314" x2="93.49711475372314" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M83.5 0.0 Q93.5 0.0 93.5 -10.0 L93.5 -25.0 Q93.5 -35.0 83.5 -35.0 L46.75,-35.0 M46.75 -35.0 L10.0 -35.0 Q0.0 -35.0 0.0 -25.0 L0.0 -10.0 Q0.0 0.0 10.0 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;line y2="40" x1="0" x2="10" class="syntaxarrow" y1="40" /&gt;
+    &lt;line y2="40" x1="122.24972648620606" x2="137.24972648620604" class="syntaxarrow" y1="40" /&gt;
+    &lt;line y2="40" x1="230.74684123992918" x2="240.74684123992918" class="syntaxarrow" y1="40" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>SEND</t>
+  </si>
+  <si>
+    <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="443.8775276422501px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 443.8775276422501 51.13888931274414" height="51.13888931274414px" class="syntaxdiagram" fill="currentColor"&gt;&lt;defs&gt;&lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+&lt;/style&gt;&lt;/defs&gt;&lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;&lt;g transform="translate(10,9.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;SEND&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="35.345143222808844" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(60.345143222808844,9.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;FROM(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(33.20929613113403,3)"&gt;&lt;text class="syntaxvar"&gt; data-area&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(84.46824464797973,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="95.34480706453323" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(170.68995028734207,9.10763931274414)" class="groupchoice"&gt;&lt;g transform="translate(23.129676437377938,0)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;LENGTH(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(44.92178249359131,3)"&gt;&lt;text class="syntaxvar"&gt; data-value&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(100.4792085647583,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="111.35577098131179" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(20,23.56944465637207)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;FLENGTH(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(51.18113536834717,3)"&gt;&lt;text class="syntaxvar"&gt; data-value&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(106.73856143951417,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="117.61512385606767" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="23.129676437377938" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartChoice" points="23.129676437377938,0 18.129676437377938,2.5 18.129676437377938,-2.5" transform="rotate(0,23.129676437377938,0)"&gt;&lt;/polygon&gt;&lt;line y2="0" x1="134.48544741868972" x2="157.61512385606767" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="152.61512385606767,0 147.61512385606767,2.5 147.61512385606767,-2.5" transform="rotate(0,152.61512385606767,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 18.56944465637207 Q5 23.56944465637207 10 23.56944465637207 L20 23.56944465637207"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,23.56944465637207 15,26.06944465637207 15,21.06944465637207" transform="rotate(0,20,23.56944465637207)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M137.61512385606767 23.56944465637207 L147.61512385606767 23.56944465637207 Q152.61512385606767 23.56944465637207 152.61512385606767 18.56944465637207 L152.61512385606767 5 Q152.61512385606767 0 157.61512385606767 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="152.61512385606767,5 147.61512385606767,7.5 147.61512385606767,2.5" transform="rotate(-90,152.61512385606767,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(343.30507414340974,9.10763931274414)" class="groupseq"&gt;&lt;g transform="translate(0,0)"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,19.44444465637207)" class="boxed syntaxkwd"&gt;&lt;g class="text" transform="translate(4,3)"&gt;&lt;text class="syntaxkwd"&gt;WAIT&lt;/text&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="35.57245349884033" height="15.44444465637207" y="-8.44444465637207" class="syntaxkwd"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="37.786226749420166" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="37.786226749420166" x2="75.57245349884033" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="70.57245349884033,0 65.57245349884033,2.5 65.57245349884033,-2.5" transform="rotate(0,70.57245349884033,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.44444465637207 Q5 19.44444465637207 10 19.44444465637207 L20 19.44444465637207"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,19.44444465637207 15,21.94444465637207 15,16.94444465637207" transform="rotate(0,20,19.44444465637207)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M55.57245349884033 19.44444465637207 L65.57245349884033 19.44444465637207 Q70.57245349884033 19.44444465637207 70.57245349884033 14.44444465637207 L70.57245349884033 5 Q70.57245349884033 0 75.57245349884033 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="70.57245349884033,5 65.57245349884033,7.5 65.57245349884033,2.5" transform="rotate(-90,70.57245349884033,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/g&gt;&lt;polygon class="arrowheadStartEnd" points="0,9.10763931274414 -5,11.60763931274414 -5,6.607639312744141" transform="rotate(0,0,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="5,9.10763931274414 0,11.60763931274414 0,6.607639312744141" transform="rotate(0,5,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;line y2="9.10763931274414" x1="45.345143222808844" x2="60.345143222808844" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="60.345143222808844,9.10763931274414 55.345143222808844,11.60763931274414 55.345143222808844,6.607639312744141" transform="rotate(0,60.345143222808844,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="155.68995028734207" x2="170.68995028734207" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="170.68995028734207,9.10763931274414 165.68995028734207,11.60763931274414 165.68995028734207,6.607639312744141" transform="rotate(0,170.68995028734207,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="328.30507414340974" x2="343.30507414340974" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="343.30507414340974,9.10763931274414 338.30507414340974,11.60763931274414 338.30507414340974,6.607639312744141" transform="rotate(0,343.30507414340974,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="418.8775276422501" x2="428.8775276422501" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="428.8775276422501,9.10763931274414 423.8775276422501,11.60763931274414 423.8775276422501,6.607639312744141" transform="rotate(0,428.8775276422501,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="428.8775276422501,9.10763931274414 423.8775276422501,11.60763931274414 423.8775276422501,6.607639312744141" transform="rotate(180,428.8775276422501,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="443.8775276422501px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 443.8775276422501 51.13888931274414" height="51.13888931274414px" class="syntaxdiagram" fill="currentColor"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10,9.10763931274414)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0,3)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            SEND
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3" x="0" width="35.345143222808844" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;
+      &lt;/rect&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(60.345143222808844,9.10763931274414)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0,3)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            FROM(
+          &lt;/text&gt;
+        &lt;/g&gt;
+        &lt;g class="text" transform="translate(33.20929613113403,3)"&gt;
+          &lt;text class="syntaxvar"&gt;
+             data-area
+          &lt;/text&gt;
+        &lt;/g&gt;
+        &lt;g class="text" transform="translate(84.46824464797973,3)"&gt;
+          &lt;text class="syntaxdelim"&gt;
+            )
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3" x="0" width="95.34480706453323" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+      &lt;/rect&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(170.68995028734207,9.10763931274414)" class="groupchoice"&gt;
+      &lt;g transform="translate(23.129676437377938,0)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              LENGTH(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(44.92178249359131,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               data-value
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(100.4792085647583,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="111.35577098131179" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,23.56944465637207)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              FLENGTH(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(51.18113536834717,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               data-value
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(106.73856143951417,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="117.61512385606767" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="23.129676437377938" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadStartChoice" points="23.129676437377938,0 18.129676437377938,2.5 18.129676437377938,-2.5" transform="rotate(0,23.129676437377938,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;line y2="0" x1="134.48544741868972" x2="157.61512385606767" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="152.61512385606767,0 147.61512385606767,2.5 147.61512385606767,-2.5" transform="rotate(0,152.61512385606767,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 18.56944465637207 Q5 23.56944465637207 10 23.56944465637207 L20 23.56944465637207"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,23.56944465637207 15,26.06944465637207 15,21.06944465637207" transform="rotate(0,20,23.56944465637207)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M137.61512385606767 23.56944465637207 L147.61512385606767 23.56944465637207 Q152.61512385606767 23.56944465637207 152.61512385606767 18.56944465637207 L152.61512385606767 5 Q152.61512385606767 0 157.61512385606767 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="152.61512385606767,5 147.61512385606767,7.5 147.61512385606767,2.5" transform="rotate(-90,152.61512385606767,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(343.30507414340974,9.10763931274414)" class="groupseq"&gt;
+      &lt;g transform="translate(0,0)"&gt;
+        &lt;g&gt;
+        &lt;/g&gt;
+        &lt;g transform="translate(20,19.44444465637207)" class="boxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(4,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              WAIT
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;rect rx="3" x="0" width="35.57245349884033" height="15.44444465637207" y="-8.44444465637207" class="syntaxkwd"&gt;
+          &lt;/rect&gt;
+        &lt;/g&gt;
+        &lt;line y2="0" x1="0" x2="37.786226749420166" class="syntaxarrow" y1="0"&gt;
+        &lt;/line&gt;
+        &lt;line y2="0" x1="37.786226749420166" x2="75.57245349884033" class="syntaxarrow" y1="0"&gt;
+        &lt;/line&gt;
+        &lt;polygon class="arrowheadAfterChoice" points="70.57245349884033,0 65.57245349884033,2.5 65.57245349884033,-2.5" transform="rotate(0,70.57245349884033,0)"&gt;
+        &lt;/polygon&gt;
+        &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.44444465637207 Q5 19.44444465637207 10 19.44444465637207 L20 19.44444465637207"&gt;
+        &lt;/path&gt;
+        &lt;polygon class="arrowheadStartChoice" points="20,19.44444465637207 15,21.94444465637207 15,16.94444465637207" transform="rotate(0,20,19.44444465637207)"&gt;
+        &lt;/polygon&gt;
+        &lt;path class="syntaxarrow" d="M55.57245349884033 19.44444465637207 L65.57245349884033 19.44444465637207 Q70.57245349884033 19.44444465637207 70.57245349884033 14.44444465637207 L70.57245349884033 5 Q70.57245349884033 0 75.57245349884033 0"&gt;
+        &lt;/path&gt;
+        &lt;polygon class="arrowheadAfterChoice" points="70.57245349884033,5 65.57245349884033,7.5 65.57245349884033,2.5" transform="rotate(-90,70.57245349884033,5)"&gt;
+        &lt;/polygon&gt;
+      &lt;/g&gt;
+    &lt;/g&gt;
+    &lt;polygon class="arrowheadStartEnd" points="0,9.10763931274414 -5,11.60763931274414 -5,6.607639312744141" transform="rotate(0,0,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="5,9.10763931274414 0,11.60763931274414 0,6.607639312744141" transform="rotate(0,5,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;line y2="9.10763931274414" x1="45.345143222808844" x2="60.345143222808844" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="60.345143222808844,9.10763931274414 55.345143222808844,11.60763931274414 55.345143222808844,6.607639312744141" transform="rotate(0,60.345143222808844,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="155.68995028734207" x2="170.68995028734207" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="170.68995028734207,9.10763931274414 165.68995028734207,11.60763931274414 165.68995028734207,6.607639312744141" transform="rotate(0,170.68995028734207,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="328.30507414340974" x2="343.30507414340974" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="343.30507414340974,9.10763931274414 338.30507414340974,11.60763931274414 338.30507414340974,6.607639312744141" transform="rotate(0,343.30507414340974,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="418.8775276422501" x2="428.8775276422501" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadStartEnd" points="428.8775276422501,9.10763931274414 423.8775276422501,11.60763931274414 423.8775276422501,6.607639312744141" transform="rotate(0,428.8775276422501,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="428.8775276422501,9.10763931274414 423.8775276422501,11.60763931274414 423.8775276422501,6.607639312744141" transform="rotate(180,428.8775276422501,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentScriptType="text/ecmascript" zoomAndPan="magnify" contentStyleType="text/css" version="1.0" width="443.88px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 443.8775276422501 51.13888931274414" height="51.14px" class="syntaxdiagram" fill="currentColor"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5.0,5.0)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10.0,9.11)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            SEND
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3.0" x="0.0" width="35.35" height="15.7" y="-8.57" class="syntaxgroupcomp" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(60.35,9.11)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            FROM( data-area)
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3.0" x="0.0" width="95.34" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(170.69,9.11)" class="groupchoice"&gt;
+      &lt;g transform="translate(23.13,0.0)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              LENGTH( data-value)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="111.36" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20.0,23.57)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              FLENGTH( data-value)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="117.62" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="23.129676437377938" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="134.48544741868972" x2="157.61512385606767" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 18.57 Q5.0 23.57 10.0 23.57 L20.0 23.57 M137.62 23.57 L147.62 23.57 Q152.62 23.57 152.62 18.57 L152.62 5.0 Q152.62 0.0 157.62 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(343.31,9.11)" class="groupseq"&gt;
+      &lt;g transform="translate(0.0,0.0)"&gt;
+        &lt;g /&gt;
+        &lt;g transform="translate(20.0,19.44)" class="boxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(4.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              WAIT
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;rect rx="3.0" x="0.0" width="35.57" height="15.44" y="-8.44" class="syntaxkwd" /&gt;
+        &lt;/g&gt;
+        &lt;line y2="0" x1="0" x2="37.786226749420166" class="syntaxarrow" y1="0" /&gt;
+        &lt;line y2="0" x1="37.786226749420166" x2="75.57245349884033" class="syntaxarrow" y1="0" /&gt;
+        &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 14.44 Q5.0 19.44 10.0 19.44 L20.0 19.44 M55.57 19.44 L65.57 19.44 Q70.57 19.44 70.57 14.44 L70.57 5.0 Q70.57 0.0 75.57 0.0" /&gt;
+      &lt;/g&gt;
+    &lt;/g&gt;
+    &lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="45.345143222808844" x2="60.345143222808844" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="155.68995028734207" x2="170.68995028734207" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="328.30507414340974" x2="343.30507414340974" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="418.8775276422501" x2="428.8775276422501" class="syntaxarrow" y1="9.10763931274414" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>ABEND</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="432.28236991167074px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 432.28236991167074 47.01388931274414" height="47.01388931274414px" class="syntaxdiagram"&gt;&lt;defs&gt;&lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+&lt;/style&gt;&lt;/defs&gt;&lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;&lt;g transform="translate(10,8.44444465637207)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;ABEND&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="43.540351486206056" height="15.44444465637207" y="-8.44444465637207" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(68.54035148620605,8.44444465637207)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;ABCODE(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(46.95974636077881,3)"&gt;&lt;text class="syntaxvar"&gt; name&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(76.33737964630127,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="87.21394206285477" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="63.606971031427385" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="63.606971031427385" x2="127.21394206285476" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="122.21394206285476,0 117.21394206285476,2.5 117.21394206285476,-2.5" transform="rotate(0,122.21394206285476,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M107.21394206285477 20.10763931274414 L117.21394206285477 20.10763931274414 Q122.21394206285477 20.10763931274414 122.21394206285477 15.10763931274414 L122.21394206285477 5 Q122.21394206285477 0 127.21394206285477 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="122.21394206285477,5 117.21394206285477,7.5 117.21394206285477,2.5" transform="rotate(-90,122.21394206285477,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(210.75429354906083,8.44444465637207)" class="groupseq"&gt;&lt;g transform="translate(0,0)"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20.000000000000004,19.572916984558105)" class="boxed syntaxkwd"&gt;&lt;g class="text" transform="translate(4,3)"&gt;&lt;text class="syntaxkwd"&gt;CANCEL&lt;/text&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="48.18875160217285" height="15.70138931274414" y="-8.572916984558105" class="syntaxkwd"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="44.09437580108643" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="44.09437580108643" x2="88.18875160217286" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="83.18875160217286,0 78.18875160217286,2.5 78.18875160217286,-2.5" transform="rotate(0,83.18875160217286,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.572916984558105 Q5 19.572916984558105 10 19.572916984558105 L20.000000000000004 19.572916984558105"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20.000000000000004,19.572916984558105 15.000000000000004,22.072916984558105 15.000000000000004,17.072916984558105" transform="rotate(0,20.000000000000004,19.572916984558105)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M68.18875160217286 19.572916984558105 L78.18875160217286 19.572916984558105 Q83.18875160217286 19.572916984558105 83.18875160217286 14.572916984558105 L83.18875160217286 5 Q83.18875160217286 0 88.18875160217286 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="83.18875160217286,5 78.18875160217286,7.5 78.18875160217286,2.5" transform="rotate(-90,83.18875160217286,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/g&gt;&lt;g transform="translate(313.9430451512337,8.44444465637207)" class="groupseq"&gt;&lt;g transform="translate(0,0)"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20.000000000000004,19.572916984558105)" class="boxed syntaxkwd"&gt;&lt;g class="text" transform="translate(4,3)"&gt;&lt;text class="syntaxkwd"&gt;NODUMP&lt;/text&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="53.339324760437016" height="15.70138931274414" y="-8.572916984558105" class="syntaxkwd"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="46.66966238021851" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="46.66966238021851" x2="93.33932476043702" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="88.33932476043702,0 83.33932476043702,2.5 83.33932476043702,-2.5" transform="rotate(0,88.33932476043702,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.572916984558105 Q5 19.572916984558105 10 19.572916984558105 L20.000000000000004 19.572916984558105"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20.000000000000004,19.572916984558105 15.000000000000004,22.072916984558105 15.000000000000004,17.072916984558105" transform="rotate(0,20.000000000000004,19.572916984558105)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M73.33932476043702 19.572916984558105 L83.33932476043702 19.572916984558105 Q88.33932476043702 19.572916984558105 88.33932476043702 14.572916984558105 L88.33932476043702 5 Q88.33932476043702 0 93.33932476043702 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="88.33932476043702,5 83.33932476043702,7.5 83.33932476043702,2.5" transform="rotate(-90,88.33932476043702,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/g&gt;&lt;polygon class="arrowheadStartEnd" points="0,8.44444465637207 -5,10.94444465637207 -5,5.94444465637207" transform="rotate(0,0,8.44444465637207)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="5,8.44444465637207 0,10.94444465637207 0,5.94444465637207" transform="rotate(0,5,8.44444465637207)"&gt;&lt;/polygon&gt;&lt;line y2="8.44444465637207" x1="0" x2="10" class="syntaxarrow" y1="8.44444465637207"&gt;&lt;/line&gt;&lt;line y2="8.44444465637207" x1="53.540351486206056" x2="68.54035148620605" class="syntaxarrow" y1="8.44444465637207"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="68.54035148620605,8.44444465637207 63.54035148620605,10.94444465637207 63.54035148620605,5.94444465637207" transform="rotate(0,68.54035148620605,8.44444465637207)"&gt;&lt;/polygon&gt;&lt;line y2="8.44444465637207" x1="195.75429354906083" x2="210.75429354906083" class="syntaxarrow" y1="8.44444465637207"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="210.75429354906083,8.44444465637207 205.75429354906083,10.94444465637207 205.75429354906083,5.94444465637207" transform="rotate(0,210.75429354906083,8.44444465637207)"&gt;&lt;/polygon&gt;&lt;line y2="8.44444465637207" x1="298.9430451512337" x2="313.9430451512337" class="syntaxarrow" y1="8.44444465637207"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="313.9430451512337,8.44444465637207 308.9430451512337,10.94444465637207 308.9430451512337,5.94444465637207" transform="rotate(0,313.9430451512337,8.44444465637207)"&gt;&lt;/polygon&gt;&lt;line y2="8.44444465637207" x1="407.28236991167074" x2="417.28236991167074" class="syntaxarrow" y1="8.44444465637207"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="417.28236991167074,8.44444465637207 412.28236991167074,10.94444465637207 412.28236991167074,5.94444465637207" transform="rotate(0,417.28236991167074,8.44444465637207)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="417.28236991167074,8.44444465637207 412.28236991167074,10.94444465637207 412.28236991167074,5.94444465637207" transform="rotate(180,417.28236991167074,8.44444465637207)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="432.28236991167074px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 432.28236991167074 47.01388931274414" height="47.01388931274414px" class="syntaxdiagram"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10,8.44444465637207)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0,3)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            ABEND
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3" x="0" width="43.540351486206056" height="15.44444465637207" y="-8.44444465637207" class="syntaxgroupcomp"&gt;
+      &lt;/rect&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(68.54035148620605,8.44444465637207)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              ABCODE(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(46.95974636077881,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               name
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(76.33737964630127,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="87.21394206285477" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="63.606971031427385" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="63.606971031427385" x2="127.21394206285476" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="122.21394206285476,0 117.21394206285476,2.5 117.21394206285476,-2.5" transform="rotate(0,122.21394206285476,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M107.21394206285477 20.10763931274414 L117.21394206285477 20.10763931274414 Q122.21394206285477 20.10763931274414 122.21394206285477 15.10763931274414 L122.21394206285477 5 Q122.21394206285477 0 127.21394206285477 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="122.21394206285477,5 117.21394206285477,7.5 117.21394206285477,2.5" transform="rotate(-90,122.21394206285477,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(210.75429354906083,8.44444465637207)" class="groupseq"&gt;
+      &lt;g transform="translate(0,0)"&gt;
+        &lt;g&gt;
+        &lt;/g&gt;
+        &lt;g transform="translate(20.000000000000004,19.572916984558105)" class="boxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(4,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              CANCEL
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;rect rx="3" x="0" width="48.18875160217285" height="15.70138931274414" y="-8.572916984558105" class="syntaxkwd"&gt;
+          &lt;/rect&gt;
+        &lt;/g&gt;
+        &lt;line y2="0" x1="0" x2="44.09437580108643" class="syntaxarrow" y1="0"&gt;
+        &lt;/line&gt;
+        &lt;line y2="0" x1="44.09437580108643" x2="88.18875160217286" class="syntaxarrow" y1="0"&gt;
+        &lt;/line&gt;
+        &lt;polygon class="arrowheadAfterChoice" points="83.18875160217286,0 78.18875160217286,2.5 78.18875160217286,-2.5" transform="rotate(0,83.18875160217286,0)"&gt;
+        &lt;/polygon&gt;
+        &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.572916984558105 Q5 19.572916984558105 10 19.572916984558105 L20.000000000000004 19.572916984558105"&gt;
+        &lt;/path&gt;
+        &lt;polygon class="arrowheadStartChoice" points="20.000000000000004,19.572916984558105 15.000000000000004,22.072916984558105 15.000000000000004,17.072916984558105" transform="rotate(0,20.000000000000004,19.572916984558105)"&gt;
+        &lt;/polygon&gt;
+        &lt;path class="syntaxarrow" d="M68.18875160217286 19.572916984558105 L78.18875160217286 19.572916984558105 Q83.18875160217286 19.572916984558105 83.18875160217286 14.572916984558105 L83.18875160217286 5 Q83.18875160217286 0 88.18875160217286 0"&gt;
+        &lt;/path&gt;
+        &lt;polygon class="arrowheadAfterChoice" points="83.18875160217286,5 78.18875160217286,7.5 78.18875160217286,2.5" transform="rotate(-90,83.18875160217286,5)"&gt;
+        &lt;/polygon&gt;
+      &lt;/g&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(313.9430451512337,8.44444465637207)" class="groupseq"&gt;
+      &lt;g transform="translate(0,0)"&gt;
+        &lt;g&gt;
+        &lt;/g&gt;
+        &lt;g transform="translate(20.000000000000004,19.572916984558105)" class="boxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(4,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              NODUMP
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;rect rx="3" x="0" width="53.339324760437016" height="15.70138931274414" y="-8.572916984558105" class="syntaxkwd"&gt;
+          &lt;/rect&gt;
+        &lt;/g&gt;
+        &lt;line y2="0" x1="0" x2="46.66966238021851" class="syntaxarrow" y1="0"&gt;
+        &lt;/line&gt;
+        &lt;line y2="0" x1="46.66966238021851" x2="93.33932476043702" class="syntaxarrow" y1="0"&gt;
+        &lt;/line&gt;
+        &lt;polygon class="arrowheadAfterChoice" points="88.33932476043702,0 83.33932476043702,2.5 83.33932476043702,-2.5" transform="rotate(0,88.33932476043702,0)"&gt;
+        &lt;/polygon&gt;
+        &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.572916984558105 Q5 19.572916984558105 10 19.572916984558105 L20.000000000000004 19.572916984558105"&gt;
+        &lt;/path&gt;
+        &lt;polygon class="arrowheadStartChoice" points="20.000000000000004,19.572916984558105 15.000000000000004,22.072916984558105 15.000000000000004,17.072916984558105" transform="rotate(0,20.000000000000004,19.572916984558105)"&gt;
+        &lt;/polygon&gt;
+        &lt;path class="syntaxarrow" d="M73.33932476043702 19.572916984558105 L83.33932476043702 19.572916984558105 Q88.33932476043702 19.572916984558105 88.33932476043702 14.572916984558105 L88.33932476043702 5 Q88.33932476043702 0 93.33932476043702 0"&gt;
+        &lt;/path&gt;
+        &lt;polygon class="arrowheadAfterChoice" points="88.33932476043702,5 83.33932476043702,7.5 83.33932476043702,2.5" transform="rotate(-90,88.33932476043702,5)"&gt;
+        &lt;/polygon&gt;
+      &lt;/g&gt;
+    &lt;/g&gt;
+    &lt;polygon class="arrowheadStartEnd" points="0,8.44444465637207 -5,10.94444465637207 -5,5.94444465637207" transform="rotate(0,0,8.44444465637207)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="5,8.44444465637207 0,10.94444465637207 0,5.94444465637207" transform="rotate(0,5,8.44444465637207)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="8.44444465637207" x1="0" x2="10" class="syntaxarrow" y1="8.44444465637207"&gt;
+    &lt;/line&gt;
+    &lt;line y2="8.44444465637207" x1="53.540351486206056" x2="68.54035148620605" class="syntaxarrow" y1="8.44444465637207"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="68.54035148620605,8.44444465637207 63.54035148620605,10.94444465637207 63.54035148620605,5.94444465637207" transform="rotate(0,68.54035148620605,8.44444465637207)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="8.44444465637207" x1="195.75429354906083" x2="210.75429354906083" class="syntaxarrow" y1="8.44444465637207"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="210.75429354906083,8.44444465637207 205.75429354906083,10.94444465637207 205.75429354906083,5.94444465637207" transform="rotate(0,210.75429354906083,8.44444465637207)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="8.44444465637207" x1="298.9430451512337" x2="313.9430451512337" class="syntaxarrow" y1="8.44444465637207"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="313.9430451512337,8.44444465637207 308.9430451512337,10.94444465637207 308.9430451512337,5.94444465637207" transform="rotate(0,313.9430451512337,8.44444465637207)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="8.44444465637207" x1="407.28236991167074" x2="417.28236991167074" class="syntaxarrow" y1="8.44444465637207"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadStartEnd" points="417.28236991167074,8.44444465637207 412.28236991167074,10.94444465637207 412.28236991167074,5.94444465637207" transform="rotate(0,417.28236991167074,8.44444465637207)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="417.28236991167074,8.44444465637207 412.28236991167074,10.94444465637207 412.28236991167074,5.94444465637207" transform="rotate(180,417.28236991167074,8.44444465637207)"&gt;
+    &lt;/polygon&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="432.28px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 432.28236991167074 47.01388931274414" height="47.01px" class="syntaxdiagram"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5.0,5.0)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10.0,8.44)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            ABEND
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3.0" x="0.0" width="43.54" height="15.44" y="-8.44" class="syntaxgroupcomp" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(68.54,8.44)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              ABCODE( name)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="87.21" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="63.606971031427385" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="63.606971031427385" x2="127.21394206285476" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M107.21 20.11 L117.21 20.11 Q122.21 20.11 122.21 15.11 L122.21 5.0 Q122.21 0.0 127.21 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(210.75,8.44)" class="groupseq"&gt;
+      &lt;g transform="translate(0.0,0.0)"&gt;
+        &lt;g /&gt;
+        &lt;g transform="translate(20.0,19.57)" class="boxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(4.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              CANCEL
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;rect rx="3.0" x="0.0" width="48.19" height="15.7" y="-8.57" class="syntaxkwd" /&gt;
+        &lt;/g&gt;
+        &lt;line y2="0" x1="0" x2="44.09437580108643" class="syntaxarrow" y1="0" /&gt;
+        &lt;line y2="0" x1="44.09437580108643" x2="88.18875160217286" class="syntaxarrow" y1="0" /&gt;
+        &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 14.57 Q5.0 19.57 10.0 19.57 L20.0 19.57 M68.19 19.57 L78.19 19.57 Q83.19 19.57 83.19 14.57 L83.19 5.0 Q83.19 0.0 88.19 0.0" /&gt;
+      &lt;/g&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(313.94,8.44)" class="groupseq"&gt;
+      &lt;g transform="translate(0.0,0.0)"&gt;
+        &lt;g /&gt;
+        &lt;g transform="translate(20.0,19.57)" class="boxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(4.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              NODUMP
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;rect rx="3.0" x="0.0" width="53.34" height="15.7" y="-8.57" class="syntaxkwd" /&gt;
+        &lt;/g&gt;
+        &lt;line y2="0" x1="0" x2="46.66966238021851" class="syntaxarrow" y1="0" /&gt;
+        &lt;line y2="0" x1="46.66966238021851" x2="93.33932476043702" class="syntaxarrow" y1="0" /&gt;
+        &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 14.57 Q5.0 19.57 10.0 19.57 L20.0 19.57 M73.34 19.57 L83.34 19.57 Q88.34 19.57 88.34 14.57 L88.34 5.0 Q88.34 0.0 93.34 0.0" /&gt;
+      &lt;/g&gt;
+    &lt;/g&gt;
+    &lt;line y2="8.44444465637207" x1="0" x2="10" class="syntaxarrow" y1="8.44444465637207" /&gt;
+    &lt;line y2="8.44444465637207" x1="53.540351486206056" x2="68.54035148620605" class="syntaxarrow" y1="8.44444465637207" /&gt;
+    &lt;line y2="8.44444465637207" x1="195.75429354906083" x2="210.75429354906083" class="syntaxarrow" y1="8.44444465637207" /&gt;
+    &lt;line y2="8.44444465637207" x1="298.9430451512337" x2="313.9430451512337" class="syntaxarrow" y1="8.44444465637207" /&gt;
+    &lt;line y2="8.44444465637207" x1="407.28236991167074" x2="417.28236991167074" class="syntaxarrow" y1="8.44444465637207" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="636.3141104221344px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 636.3141104221344 97.05208396911621" height="97.05208396911621px" class="syntaxdiagram"&gt;&lt;defs&gt;&lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+&lt;/style&gt;&lt;/defs&gt;&lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;&lt;g transform="translate(10,8.572916984558105)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;ADDRESS &lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="56.07020835876465" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(81.07020835876466,8.572916984558105)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;ACEE(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(30.734702110290527,3)"&gt;&lt;text class="syntaxvar"&gt; ptr-ref&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(65.33029994964599,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="76.20686236619949" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="58.103431183099744" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="58.103431183099744" x2="116.20686236619949" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="111.20686236619949,0 106.20686236619949,2.5 106.20686236619949,-2.5" transform="rotate(0,111.20686236619949,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M96.20686236619949 20.10763931274414 L106.20686236619949 20.10763931274414 Q111.20686236619949 20.10763931274414 111.20686236619949 15.10763931274414 L111.20686236619949 5 Q111.20686236619949 0 116.20686236619949 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="111.20686236619949,5 106.20686236619949,7.5 106.20686236619949,2.5" transform="rotate(-90,111.20686236619949,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(212.27707072496415,8.572916984558105)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;COMMAREA(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(64.2727460861206,3)"&gt;&lt;text class="syntaxvar"&gt; ptr-ref&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(98.86834392547607,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="109.74490634202957" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="74.87245317101478" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="74.87245317101478" x2="149.74490634202957" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="144.74490634202957,0 139.74490634202957,2.5 139.74490634202957,-2.5" transform="rotate(0,144.74490634202957,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M129.74490634202957 20.10763931274414 L139.74490634202957 20.10763931274414 Q144.74490634202957 20.10763931274414 144.74490634202957 15.10763931274414 L144.74490634202957 5 Q144.74490634202957 0 149.74490634202957 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="144.74490634202957,5 139.74490634202957,7.5 139.74490634202957,2.5" transform="rotate(-90,144.74490634202957,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(377.0219770669937,8.572916984558105)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;CWA(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(27.26531095504761,3)"&gt;&lt;text class="syntaxvar"&gt; ptr-ref&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(61.86090879440308,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="72.73747121095658" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="56.36873560547829" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="56.36873560547829" x2="112.73747121095658" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="107.73747121095658,0 102.73747121095658,2.5 102.73747121095658,-2.5" transform="rotate(0,107.73747121095658,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M92.73747121095658 20.10763931274414 L102.73747121095658 20.10763931274414 Q107.73747121095658 20.10763931274414 107.73747121095658 15.10763931274414 L107.73747121095658 5 Q107.73747121095658 0 112.73747121095658 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="107.73747121095658,5 102.73747121095658,7.5 102.73747121095658,2.5" transform="rotate(-90,107.73747121095658,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(504.7594482779503,8.572916984558105)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;EIB(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(21.082501888275146,3)"&gt;&lt;text class="syntaxvar"&gt; ptr-ref&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(55.67809972763062,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="66.5546621441841" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="53.27733107209205" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="53.27733107209205" x2="106.5546621441841" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="101.5546621441841,0 96.5546621441841,2.5 96.5546621441841,-2.5" transform="rotate(0,101.5546621441841,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M86.5546621441841 20.10763931274414 L96.5546621441841 20.10763931274414 Q101.5546621441841 20.10763931274414 101.5546621441841 15.10763931274414 L101.5546621441841 5 Q101.5546621441841 0 106.5546621441841 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="101.5546621441841,5 96.5546621441841,7.5 96.5546621441841,2.5" transform="rotate(-90,101.5546621441841,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(45,57.81250047683716)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;TCTUA(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(38.09114284515381,3)"&gt;&lt;text class="syntaxvar"&gt; ptr-ref&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(72.68674068450929,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="83.56330310106279" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="61.78165155053139" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="61.78165155053139" x2="123.56330310106279" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="118.56330310106279,0 113.56330310106279,2.5 113.56330310106279,-2.5" transform="rotate(0,118.56330310106279,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M103.56330310106279 20.10763931274414 L113.56330310106279 20.10763931274414 Q118.56330310106279 20.10763931274414 118.56330310106279 15.10763931274414 L118.56330310106279 5 Q118.56330310106279 0 123.56330310106279 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="118.56330310106279,5 113.56330310106279,7.5 113.56330310106279,2.5" transform="rotate(-90,118.56330310106279,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(183.5633031010628,57.81250047683716)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;TWA(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(27.117680740356448,3)"&gt;&lt;text class="syntaxvar"&gt; ptr-ref&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(61.71327857971192,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="72.58984099626542" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="56.29492049813271" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="56.29492049813271" x2="112.58984099626542" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="107.58984099626542,0 102.58984099626542,2.5 102.58984099626542,-2.5" transform="rotate(0,107.58984099626542,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M92.58984099626542 20.10763931274414 L102.58984099626542 20.10763931274414 Q107.58984099626542 20.10763931274414 107.58984099626542 15.10763931274414 L107.58984099626542 5 Q107.58984099626542 0 112.58984099626542 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="107.58984099626542,5 102.58984099626542,7.5 102.58984099626542,2.5" transform="rotate(-90,107.58984099626542,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;polygon class="arrowheadStartEnd" points="0,8.572916984558105 -5,11.072916984558105 -5,6.0729169845581055" transform="rotate(0,0,8.572916984558105)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="5,8.572916984558105 0,11.072916984558105 0,6.0729169845581055" transform="rotate(0,5,8.572916984558105)"&gt;&lt;/polygon&gt;&lt;line y2="8.572916984558105" x1="0" x2="10" class="syntaxarrow" y1="8.572916984558105"&gt;&lt;/line&gt;&lt;line y2="8.572916984558105" x1="66.07020835876466" x2="81.07020835876466" class="syntaxarrow" y1="8.572916984558105"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="81.07020835876466,8.572916984558105 76.07020835876466,11.072916984558105 76.07020835876466,6.0729169845581055" transform="rotate(0,81.07020835876466,8.572916984558105)"&gt;&lt;/polygon&gt;&lt;line y2="8.572916984558105" x1="197.27707072496415" x2="212.27707072496415" class="syntaxarrow" y1="8.572916984558105"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="212.27707072496415,8.572916984558105 207.27707072496415,11.072916984558105 207.27707072496415,6.0729169845581055" transform="rotate(0,212.27707072496415,8.572916984558105)"&gt;&lt;/polygon&gt;&lt;line y2="8.572916984558105" x1="362.0219770669937" x2="377.0219770669937" class="syntaxarrow" y1="8.572916984558105"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="377.0219770669937,8.572916984558105 372.0219770669937,11.072916984558105 372.0219770669937,6.0729169845581055" transform="rotate(0,377.0219770669937,8.572916984558105)"&gt;&lt;/polygon&gt;&lt;line y2="8.572916984558105" x1="489.7594482779503" x2="504.7594482779503" class="syntaxarrow" y1="8.572916984558105"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="504.7594482779503,8.572916984558105 499.7594482779503,11.072916984558105 499.7594482779503,6.0729169845581055" transform="rotate(0,504.7594482779503,8.572916984558105)"&gt;&lt;/polygon&gt;&lt;line y2="8.572916984558105" x1="611.3141104221344" x2="626.3141104221344" class="syntaxarrow" y1="8.572916984558105"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="626.3141104221344,8.572916984558105 621.3141104221344,11.072916984558105 621.3141104221344,6.0729169845581055" transform="rotate(0,626.3141104221344,8.572916984558105)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="30,57.81250047683716 25,60.31250047683716 25,55.31250047683716" transform="rotate(0,30,57.81250047683716)"&gt;&lt;/polygon&gt;&lt;line y2="57.81250047683716" x1="30" x2="45" class="syntaxarrow" y1="57.81250047683716"&gt;&lt;/line&gt;&lt;line y2="57.81250047683716" x1="168.5633031010628" x2="183.5633031010628" class="syntaxarrow" y1="57.81250047683716"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="183.5633031010628,57.81250047683716 178.5633031010628,60.31250047683716 178.5633031010628,55.31250047683716" transform="rotate(0,183.5633031010628,57.81250047683716)"&gt;&lt;/polygon&gt;&lt;line y2="57.81250047683716" x1="296.1531440973282" x2="306.1531440973282" class="syntaxarrow" y1="57.81250047683716"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="306.1531440973282,57.81250047683716 301.1531440973282,60.31250047683716 301.1531440973282,55.31250047683716" transform="rotate(0,306.1531440973282,57.81250047683716)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="306.1531440973282,57.81250047683716 301.1531440973282,60.31250047683716 301.1531440973282,55.31250047683716" transform="rotate(180,306.1531440973282,57.81250047683716)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="636.3141104221344px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 636.3141104221344 97.05208396911621" height="97.05208396911621px" class="syntaxdiagram"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10,8.572916984558105)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0,3)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            ADDRESS 
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3" x="0" width="56.07020835876465" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;
+      &lt;/rect&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(81.07020835876466,8.572916984558105)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              ACEE(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(30.734702110290527,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               ptr-ref
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(65.33029994964599,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="76.20686236619949" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="58.103431183099744" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="58.103431183099744" x2="116.20686236619949" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="111.20686236619949,0 106.20686236619949,2.5 106.20686236619949,-2.5" transform="rotate(0,111.20686236619949,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M96.20686236619949 20.10763931274414 L106.20686236619949 20.10763931274414 Q111.20686236619949 20.10763931274414 111.20686236619949 15.10763931274414 L111.20686236619949 5 Q111.20686236619949 0 116.20686236619949 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="111.20686236619949,5 106.20686236619949,7.5 106.20686236619949,2.5" transform="rotate(-90,111.20686236619949,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(212.27707072496415,8.572916984558105)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              COMMAREA(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(64.2727460861206,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               ptr-ref
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(98.86834392547607,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="109.74490634202957" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="74.87245317101478" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="74.87245317101478" x2="149.74490634202957" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="144.74490634202957,0 139.74490634202957,2.5 139.74490634202957,-2.5" transform="rotate(0,144.74490634202957,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M129.74490634202957 20.10763931274414 L139.74490634202957 20.10763931274414 Q144.74490634202957 20.10763931274414 144.74490634202957 15.10763931274414 L144.74490634202957 5 Q144.74490634202957 0 149.74490634202957 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="144.74490634202957,5 139.74490634202957,7.5 139.74490634202957,2.5" transform="rotate(-90,144.74490634202957,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(377.0219770669937,8.572916984558105)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              CWA(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(27.26531095504761,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               ptr-ref
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(61.86090879440308,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="72.73747121095658" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="56.36873560547829" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="56.36873560547829" x2="112.73747121095658" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="107.73747121095658,0 102.73747121095658,2.5 102.73747121095658,-2.5" transform="rotate(0,107.73747121095658,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M92.73747121095658 20.10763931274414 L102.73747121095658 20.10763931274414 Q107.73747121095658 20.10763931274414 107.73747121095658 15.10763931274414 L107.73747121095658 5 Q107.73747121095658 0 112.73747121095658 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="107.73747121095658,5 102.73747121095658,7.5 102.73747121095658,2.5" transform="rotate(-90,107.73747121095658,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(504.7594482779503,8.572916984558105)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              EIB(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(21.082501888275146,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               ptr-ref
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(55.67809972763062,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="66.5546621441841" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="53.27733107209205" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="53.27733107209205" x2="106.5546621441841" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="101.5546621441841,0 96.5546621441841,2.5 96.5546621441841,-2.5" transform="rotate(0,101.5546621441841,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M86.5546621441841 20.10763931274414 L96.5546621441841 20.10763931274414 Q101.5546621441841 20.10763931274414 101.5546621441841 15.10763931274414 L101.5546621441841 5 Q101.5546621441841 0 106.5546621441841 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="101.5546621441841,5 96.5546621441841,7.5 96.5546621441841,2.5" transform="rotate(-90,101.5546621441841,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(45,57.81250047683716)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              TCTUA(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(38.09114284515381,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               ptr-ref
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(72.68674068450929,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="83.56330310106279" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="61.78165155053139" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="61.78165155053139" x2="123.56330310106279" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="118.56330310106279,0 113.56330310106279,2.5 113.56330310106279,-2.5" transform="rotate(0,118.56330310106279,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M103.56330310106279 20.10763931274414 L113.56330310106279 20.10763931274414 Q118.56330310106279 20.10763931274414 118.56330310106279 15.10763931274414 L118.56330310106279 5 Q118.56330310106279 0 123.56330310106279 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="118.56330310106279,5 113.56330310106279,7.5 113.56330310106279,2.5" transform="rotate(-90,118.56330310106279,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(183.5633031010628,57.81250047683716)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              TWA(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(27.117680740356448,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               ptr-ref
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(61.71327857971192,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="72.58984099626542" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="56.29492049813271" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="56.29492049813271" x2="112.58984099626542" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="107.58984099626542,0 102.58984099626542,2.5 102.58984099626542,-2.5" transform="rotate(0,107.58984099626542,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M92.58984099626542 20.10763931274414 L102.58984099626542 20.10763931274414 Q107.58984099626542 20.10763931274414 107.58984099626542 15.10763931274414 L107.58984099626542 5 Q107.58984099626542 0 112.58984099626542 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="107.58984099626542,5 102.58984099626542,7.5 102.58984099626542,2.5" transform="rotate(-90,107.58984099626542,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;polygon class="arrowheadStartEnd" points="0,8.572916984558105 -5,11.072916984558105 -5,6.0729169845581055" transform="rotate(0,0,8.572916984558105)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="5,8.572916984558105 0,11.072916984558105 0,6.0729169845581055" transform="rotate(0,5,8.572916984558105)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="8.572916984558105" x1="0" x2="10" class="syntaxarrow" y1="8.572916984558105"&gt;
+    &lt;/line&gt;
+    &lt;line y2="8.572916984558105" x1="66.07020835876466" x2="81.07020835876466" class="syntaxarrow" y1="8.572916984558105"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="81.07020835876466,8.572916984558105 76.07020835876466,11.072916984558105 76.07020835876466,6.0729169845581055" transform="rotate(0,81.07020835876466,8.572916984558105)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="8.572916984558105" x1="197.27707072496415" x2="212.27707072496415" class="syntaxarrow" y1="8.572916984558105"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="212.27707072496415,8.572916984558105 207.27707072496415,11.072916984558105 207.27707072496415,6.0729169845581055" transform="rotate(0,212.27707072496415,8.572916984558105)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="8.572916984558105" x1="362.0219770669937" x2="377.0219770669937" class="syntaxarrow" y1="8.572916984558105"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="377.0219770669937,8.572916984558105 372.0219770669937,11.072916984558105 372.0219770669937,6.0729169845581055" transform="rotate(0,377.0219770669937,8.572916984558105)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="8.572916984558105" x1="489.7594482779503" x2="504.7594482779503" class="syntaxarrow" y1="8.572916984558105"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="504.7594482779503,8.572916984558105 499.7594482779503,11.072916984558105 499.7594482779503,6.0729169845581055" transform="rotate(0,504.7594482779503,8.572916984558105)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="8.572916984558105" x1="611.3141104221344" x2="626.3141104221344" class="syntaxarrow" y1="8.572916984558105"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadStartEnd" points="626.3141104221344,8.572916984558105 621.3141104221344,11.072916984558105 621.3141104221344,6.0729169845581055" transform="rotate(0,626.3141104221344,8.572916984558105)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="30,57.81250047683716 25,60.31250047683716 25,55.31250047683716" transform="rotate(0,30,57.81250047683716)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="57.81250047683716" x1="30" x2="45" class="syntaxarrow" y1="57.81250047683716"&gt;
+    &lt;/line&gt;
+    &lt;line y2="57.81250047683716" x1="168.5633031010628" x2="183.5633031010628" class="syntaxarrow" y1="57.81250047683716"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="183.5633031010628,57.81250047683716 178.5633031010628,60.31250047683716 178.5633031010628,55.31250047683716" transform="rotate(0,183.5633031010628,57.81250047683716)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="57.81250047683716" x1="296.1531440973282" x2="306.1531440973282" class="syntaxarrow" y1="57.81250047683716"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadStartEnd" points="306.1531440973282,57.81250047683716 301.1531440973282,60.31250047683716 301.1531440973282,55.31250047683716" transform="rotate(0,306.1531440973282,57.81250047683716)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="306.1531440973282,57.81250047683716 301.1531440973282,60.31250047683716 301.1531440973282,55.31250047683716" transform="rotate(180,306.1531440973282,57.81250047683716)"&gt;
+    &lt;/polygon&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="636.31px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 636.3141104221344 97.05208396911621" height="97.05px" class="syntaxdiagram"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5.0,5.0)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10.0,8.57)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            ADDRESS 
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3.0" x="0.0" width="56.07" height="15.7" y="-8.57" class="syntaxgroupcomp" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(81.07,8.57)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              ACEE( ptr-ref)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="76.21" height="18.24" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="58.103431183099744" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="58.103431183099744" x2="116.20686236619949" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M96.21 20.11 L106.21 20.11 Q111.21 20.11 111.21 15.11 L111.21 5.0 Q111.21 0.0 116.21 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(212.28,8.57)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              COMMAREA( ptr-ref)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="109.74" height="18.24" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="74.87245317101478" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="74.87245317101478" x2="149.74490634202957" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M129.74 20.11 L139.74 20.11 Q144.74 20.11 144.74 15.11 L144.74 5.0 Q144.74 0.0 149.74 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(377.02,8.57)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              CWA( ptr-ref)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="72.74" height="18.24" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="56.36873560547829" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="56.36873560547829" x2="112.73747121095658" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M92.74 20.11 L102.74 20.11 Q107.74 20.11 107.74 15.11 L107.74 5.0 Q107.74 0.0 112.74 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(504.76,8.57)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              EIB( ptr-ref)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="66.55" height="18.24" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="53.27733107209205" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="53.27733107209205" x2="106.5546621441841" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M86.55 20.11 L96.55 20.11 Q101.55 20.11 101.55 15.11 L101.55 5.0 Q101.55 0.0 106.55 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(45.0,57.81)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              TCTUA( ptr-ref)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="83.56" height="18.24" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="61.78165155053139" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="61.78165155053139" x2="123.56330310106279" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M103.56 20.11 L113.56 20.11 Q118.56 20.11 118.56 15.11 L118.56 5.0 Q118.56 0.0 123.56 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(183.56,57.81)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              TWA( ptr-ref)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="72.59" height="18.24" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="56.29492049813271" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="56.29492049813271" x2="112.58984099626542" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M92.59 20.11 L102.59 20.11 Q107.59 20.11 107.59 15.11 L107.59 5.0 Q107.59 0.0 112.59 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;line y2="8.572916984558105" x1="0" x2="10" class="syntaxarrow" y1="8.572916984558105" /&gt;
+    &lt;line y2="8.572916984558105" x1="66.07020835876466" x2="81.07020835876466" class="syntaxarrow" y1="8.572916984558105" /&gt;
+    &lt;line y2="8.572916984558105" x1="197.27707072496415" x2="212.27707072496415" class="syntaxarrow" y1="8.572916984558105" /&gt;
+    &lt;line y2="8.572916984558105" x1="362.0219770669937" x2="377.0219770669937" class="syntaxarrow" y1="8.572916984558105" /&gt;
+    &lt;line y2="8.572916984558105" x1="489.7594482779503" x2="504.7594482779503" class="syntaxarrow" y1="8.572916984558105" /&gt;
+    &lt;line y2="8.572916984558105" x1="611.3141104221344" x2="626.3141104221344" class="syntaxarrow" y1="8.572916984558105" /&gt;
+    &lt;line y2="57.81250047683716" x1="30" x2="45" class="syntaxarrow" y1="57.81250047683716" /&gt;
+    &lt;line y2="57.81250047683716" x1="168.5633031010628" x2="183.5633031010628" class="syntaxarrow" y1="57.81250047683716" /&gt;
+    &lt;line y2="57.81250047683716" x1="296.1531440973282" x2="306.1531440973282" class="syntaxarrow" y1="57.81250047683716" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>ALLOCATEAPPC</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="643.7898300528527px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 643.7898300528527 71.24652862548828" height="71.24652862548828px" class="syntaxdiagram"&gt;&lt;defs&gt;&lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+&lt;/style&gt;&lt;/defs&gt;&lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;&lt;g transform="translate(10,9.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;ALLOCATE&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="60.413759040832524" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(85.41375904083253,9.10763931274414)" class="groupchoice"&gt;&lt;g transform="translate(20,0)" class="groupseq"&gt;&lt;g transform="translate(0,0)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;SYSID(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(34.9798152923584,3)"&gt;&lt;text class="syntaxvar"&gt; systemname&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(99.37331676483154,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="110.24987918138504" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(125.24987918138504,0)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;PROFILE(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(47.51958160400391,3)"&gt;&lt;text class="syntaxvar"&gt; name&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(76.89721488952637,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="87.77377730607986" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="63.88688865303993" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="63.88688865303993" x2="127.77377730607986" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="122.77377730607986,0 117.77377730607986,2.5 117.77377730607986,-2.5" transform="rotate(0,122.77377730607986,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M107.77377730607986 20.10763931274414 L117.77377730607986 20.10763931274414 Q122.77377730607986 20.10763931274414 122.77377730607986 15.10763931274414 L122.77377730607986 5 Q122.77377730607986 0 127.77377730607986 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="122.77377730607986,5 117.77377730607986,7.5 117.77377730607986,2.5" transform="rotate(-90,122.77377730607986,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;line y2="0" x1="110.24987918138504" x2="125.24987918138504" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="125.24987918138504,0 120.24987918138504,2.5 120.24987918138504,-2.5" transform="rotate(0,125.24987918138504,0)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(100.43024716973304,43.67708396911621)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;PARTNER(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(51.90896644592286,3)"&gt;&lt;text class="syntaxvar"&gt; name&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(81.28659973144532,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="92.16316214799882" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="20" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartChoice" points="20,0 15,2.5 15,-2.5" transform="rotate(0,20,0)"&gt;&lt;/polygon&gt;&lt;line y2="0" x1="273.0236564874649" x2="293.0236564874649" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="288.0236564874649,0 283.0236564874649,2.5 283.0236564874649,-2.5" transform="rotate(0,288.0236564874649,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 38.67708396911621 Q5 43.67708396911621 10 43.67708396911621 L100.43024716973304 43.67708396911621"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="100.43024716973304,43.67708396911621 95.43024716973304,46.17708396911621 95.43024716973304,41.17708396911621" transform="rotate(0,100.43024716973304,43.67708396911621)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M192.59340931773187 43.67708396911621 L283.0236564874649 43.67708396911621 Q288.0236564874649 43.67708396911621 288.0236564874649 38.67708396911621 L288.0236564874649 5 Q288.0236564874649 0 293.0236564874649 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="288.0236564874649,5 283.0236564874649,7.5 283.0236564874649,2.5" transform="rotate(-90,288.0236564874649,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(393.43741552829744,9.10763931274414)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20.000000000000004,19.572916984558105)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;NOQUEUE&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="58.25262012481689" height="17.322916984558105" y="-8.572916984558105" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="49.12631006240845" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="49.12631006240845" x2="98.2526201248169" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="93.2526201248169,0 88.2526201248169,2.5 88.2526201248169,-2.5" transform="rotate(0,93.2526201248169,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.572916984558105 Q5 19.572916984558105 10 19.572916984558105 L20.000000000000004 19.572916984558105"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20.000000000000004,19.572916984558105 15.000000000000004,22.072916984558105 15.000000000000004,17.072916984558105" transform="rotate(0,20.000000000000004,19.572916984558105)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M78.2526201248169 19.572916984558105 L88.2526201248169 19.572916984558105 Q93.2526201248169 19.572916984558105 93.2526201248169 14.572916984558105 L93.2526201248169 5 Q93.2526201248169 0 98.2526201248169 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="93.2526201248169,5 88.2526201248169,7.5 88.2526201248169,2.5" transform="rotate(-90,93.2526201248169,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(506.69003565311436,9.10763931274414)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;STATE(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(36.3570951461792,3)"&gt;&lt;text class="syntaxvar"&gt; cvda&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(61.22323198318482,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="72.09979439973831" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="56.04989719986916" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="56.04989719986916" x2="112.0997943997383" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="107.0997943997383,0 102.0997943997383,2.5 102.0997943997383,-2.5" transform="rotate(0,107.0997943997383,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M92.09979439973831 20.10763931274414 L102.09979439973831 20.10763931274414 Q107.09979439973831 20.10763931274414 107.09979439973831 15.10763931274414 L107.09979439973831 5 Q107.09979439973831 0 112.09979439973831 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="107.09979439973831,5 102.09979439973831,7.5 102.09979439973831,2.5" transform="rotate(-90,107.09979439973831,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;polygon class="arrowheadStartEnd" points="0,9.10763931274414 -5,11.60763931274414 -5,6.607639312744141" transform="rotate(0,0,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="5,9.10763931274414 0,11.60763931274414 0,6.607639312744141" transform="rotate(0,5,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;line y2="9.10763931274414" x1="70.41375904083253" x2="85.41375904083253" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="85.41375904083253,9.10763931274414 80.41375904083253,11.60763931274414 80.41375904083253,6.607639312744141" transform="rotate(0,85.41375904083253,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="378.43741552829744" x2="393.43741552829744" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="393.43741552829744,9.10763931274414 388.43741552829744,11.60763931274414 388.43741552829744,6.607639312744141" transform="rotate(0,393.43741552829744,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="491.69003565311436" x2="506.69003565311436" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="506.69003565311436,9.10763931274414 501.69003565311436,11.60763931274414 501.69003565311436,6.607639312744141" transform="rotate(0,506.69003565311436,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="618.7898300528527" x2="628.7898300528527" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="628.7898300528527,9.10763931274414 623.7898300528527,11.60763931274414 623.7898300528527,6.607639312744141" transform="rotate(0,628.7898300528527,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="628.7898300528527,9.10763931274414 623.7898300528527,11.60763931274414 623.7898300528527,6.607639312744141" transform="rotate(180,628.7898300528527,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="643.7898300528527px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 643.7898300528527 71.24652862548828" height="71.24652862548828px" class="syntaxdiagram"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10,9.10763931274414)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0,3)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            ALLOCATE
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3" x="0" width="60.413759040832524" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;
+      &lt;/rect&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(85.41375904083253,9.10763931274414)" class="groupchoice"&gt;
+      &lt;g transform="translate(20,0)" class="groupseq"&gt;
+        &lt;g transform="translate(0,0)" class="boxed groupcomp"&gt;
+          &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+            &lt;g class="text" transform="translate(0,3)"&gt;
+              &lt;text class="syntaxkwd"&gt;
+                SYSID(
+              &lt;/text&gt;
+            &lt;/g&gt;
+            &lt;g class="text" transform="translate(34.9798152923584,3)"&gt;
+              &lt;text class="syntaxvar"&gt;
+                 systemname
+              &lt;/text&gt;
+            &lt;/g&gt;
+            &lt;g class="text" transform="translate(99.37331676483154,3)"&gt;
+              &lt;text class="syntaxdelim"&gt;
+                )
+              &lt;/text&gt;
+            &lt;/g&gt;
+          &lt;/g&gt;
+          &lt;rect rx="3" x="0" width="110.24987918138504" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+          &lt;/rect&gt;
+        &lt;/g&gt;
+        &lt;g transform="translate(125.24987918138504,0)" class="groupseq"&gt;
+          &lt;g&gt;
+          &lt;/g&gt;
+          &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+            &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+              &lt;g class="text" transform="translate(0,3)"&gt;
+                &lt;text class="syntaxkwd"&gt;
+                  PROFILE(
+                &lt;/text&gt;
+              &lt;/g&gt;
+              &lt;g class="text" transform="translate(47.51958160400391,3)"&gt;
+                &lt;text class="syntaxvar"&gt;
+                   name
+                &lt;/text&gt;
+              &lt;/g&gt;
+              &lt;g class="text" transform="translate(76.89721488952637,3)"&gt;
+                &lt;text class="syntaxdelim"&gt;
+                  )
+                &lt;/text&gt;
+              &lt;/g&gt;
+            &lt;/g&gt;
+            &lt;rect rx="3" x="0" width="87.77377730607986" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+            &lt;/rect&gt;
+          &lt;/g&gt;
+          &lt;line y2="0" x1="0" x2="63.88688865303993" class="syntaxarrow" y1="0"&gt;
+          &lt;/line&gt;
+          &lt;line y2="0" x1="63.88688865303993" x2="127.77377730607986" class="syntaxarrow" y1="0"&gt;
+          &lt;/line&gt;
+          &lt;polygon class="arrowheadAfterChoice" points="122.77377730607986,0 117.77377730607986,2.5 117.77377730607986,-2.5" transform="rotate(0,122.77377730607986,0)"&gt;
+          &lt;/polygon&gt;
+          &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+          &lt;/path&gt;
+          &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+          &lt;/polygon&gt;
+          &lt;path class="syntaxarrow" d="M107.77377730607986 20.10763931274414 L117.77377730607986 20.10763931274414 Q122.77377730607986 20.10763931274414 122.77377730607986 15.10763931274414 L122.77377730607986 5 Q122.77377730607986 0 127.77377730607986 0"&gt;
+          &lt;/path&gt;
+          &lt;polygon class="arrowheadAfterChoice" points="122.77377730607986,5 117.77377730607986,7.5 117.77377730607986,2.5" transform="rotate(-90,122.77377730607986,5)"&gt;
+          &lt;/polygon&gt;
+        &lt;/g&gt;
+        &lt;line y2="0" x1="110.24987918138504" x2="125.24987918138504" class="syntaxarrow" y1="0"&gt;
+        &lt;/line&gt;
+        &lt;polygon class="arrowheadSeq" points="125.24987918138504,0 120.24987918138504,2.5 120.24987918138504,-2.5" transform="rotate(0,125.24987918138504,0)"&gt;
+        &lt;/polygon&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(100.43024716973304,43.67708396911621)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              PARTNER(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(51.90896644592286,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               name
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(81.28659973144532,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="92.16316214799882" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="20" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,0 15,2.5 15,-2.5" transform="rotate(0,20,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;line y2="0" x1="273.0236564874649" x2="293.0236564874649" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="288.0236564874649,0 283.0236564874649,2.5 283.0236564874649,-2.5" transform="rotate(0,288.0236564874649,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 38.67708396911621 Q5 43.67708396911621 10 43.67708396911621 L100.43024716973304 43.67708396911621"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="100.43024716973304,43.67708396911621 95.43024716973304,46.17708396911621 95.43024716973304,41.17708396911621" transform="rotate(0,100.43024716973304,43.67708396911621)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M192.59340931773187 43.67708396911621 L283.0236564874649 43.67708396911621 Q288.0236564874649 43.67708396911621 288.0236564874649 38.67708396911621 L288.0236564874649 5 Q288.0236564874649 0 293.0236564874649 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="288.0236564874649,5 283.0236564874649,7.5 283.0236564874649,2.5" transform="rotate(-90,288.0236564874649,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(393.43741552829744,9.10763931274414)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20.000000000000004,19.572916984558105)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              NOQUEUE
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="58.25262012481689" height="17.322916984558105" y="-8.572916984558105" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="49.12631006240845" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="49.12631006240845" x2="98.2526201248169" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="93.2526201248169,0 88.2526201248169,2.5 88.2526201248169,-2.5" transform="rotate(0,93.2526201248169,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.572916984558105 Q5 19.572916984558105 10 19.572916984558105 L20.000000000000004 19.572916984558105"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20.000000000000004,19.572916984558105 15.000000000000004,22.072916984558105 15.000000000000004,17.072916984558105" transform="rotate(0,20.000000000000004,19.572916984558105)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M78.2526201248169 19.572916984558105 L88.2526201248169 19.572916984558105 Q93.2526201248169 19.572916984558105 93.2526201248169 14.572916984558105 L93.2526201248169 5 Q93.2526201248169 0 98.2526201248169 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="93.2526201248169,5 88.2526201248169,7.5 88.2526201248169,2.5" transform="rotate(-90,93.2526201248169,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(506.69003565311436,9.10763931274414)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              STATE(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(36.3570951461792,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               cvda
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(61.22323198318482,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="72.09979439973831" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="56.04989719986916" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="56.04989719986916" x2="112.0997943997383" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="107.0997943997383,0 102.0997943997383,2.5 102.0997943997383,-2.5" transform="rotate(0,107.0997943997383,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M92.09979439973831 20.10763931274414 L102.09979439973831 20.10763931274414 Q107.09979439973831 20.10763931274414 107.09979439973831 15.10763931274414 L107.09979439973831 5 Q107.09979439973831 0 112.09979439973831 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="107.09979439973831,5 102.09979439973831,7.5 102.09979439973831,2.5" transform="rotate(-90,107.09979439973831,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;polygon class="arrowheadStartEnd" points="0,9.10763931274414 -5,11.60763931274414 -5,6.607639312744141" transform="rotate(0,0,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="5,9.10763931274414 0,11.60763931274414 0,6.607639312744141" transform="rotate(0,5,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;line y2="9.10763931274414" x1="70.41375904083253" x2="85.41375904083253" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="85.41375904083253,9.10763931274414 80.41375904083253,11.60763931274414 80.41375904083253,6.607639312744141" transform="rotate(0,85.41375904083253,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="378.43741552829744" x2="393.43741552829744" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="393.43741552829744,9.10763931274414 388.43741552829744,11.60763931274414 388.43741552829744,6.607639312744141" transform="rotate(0,393.43741552829744,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="491.69003565311436" x2="506.69003565311436" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="506.69003565311436,9.10763931274414 501.69003565311436,11.60763931274414 501.69003565311436,6.607639312744141" transform="rotate(0,506.69003565311436,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="618.7898300528527" x2="628.7898300528527" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadStartEnd" points="628.7898300528527,9.10763931274414 623.7898300528527,11.60763931274414 623.7898300528527,6.607639312744141" transform="rotate(0,628.7898300528527,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="628.7898300528527,9.10763931274414 623.7898300528527,11.60763931274414 623.7898300528527,6.607639312744141" transform="rotate(180,628.7898300528527,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="643.79px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 643.7898300528527 71.24652862548828" height="71.25px" class="syntaxdiagram"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5.0,5.0)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10.0,9.11)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            ALLOCATE
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3.0" x="0.0" width="60.41" height="15.7" y="-8.57" class="syntaxgroupcomp" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(85.41,9.11)" class="groupchoice"&gt;
+      &lt;g transform="translate(20.0,0.0)" class="groupseq"&gt;
+        &lt;g transform="translate(0.0,0.0)" class="boxed groupcomp"&gt;
+          &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+            &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+              &lt;text class="syntaxkwd"&gt;
+                SYSID( systemname)
+              &lt;/text&gt;
+            &lt;/g&gt;
+          &lt;/g&gt;
+          &lt;rect rx="3.0" x="0.0" width="110.25" height="18.24" y="-9.11" class="syntaxgroupcomp" /&gt;
+        &lt;/g&gt;
+        &lt;g transform="translate(125.25,0.0)" class="groupseq"&gt;
+          &lt;g /&gt;
+          &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+            &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+              &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+                &lt;text class="syntaxkwd"&gt;
+                  PROFILE( name)
+                &lt;/text&gt;
+              &lt;/g&gt;
+            &lt;/g&gt;
+            &lt;rect rx="3.0" x="0.0" width="87.77" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+          &lt;/g&gt;
+          &lt;line y2="0" x1="0" x2="63.88688865303993" class="syntaxarrow" y1="0" /&gt;
+          &lt;line y2="0" x1="63.88688865303993" x2="127.77377730607986" class="syntaxarrow" y1="0" /&gt;
+          &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M107.77 20.11 L117.77 20.11 Q122.77 20.11 122.77 15.11 L122.77 5.0 Q122.77 0.0 127.77 0.0" /&gt;
+        &lt;/g&gt;
+        &lt;line y2="0" x1="110.24987918138504" x2="125.24987918138504" class="syntaxarrow" y1="0" /&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(100.43,43.68)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              PARTNER( name)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="92.16" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="20" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="273.0236564874649" x2="293.0236564874649" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 38.68 Q5.0 43.68 10.0 43.68 L100.43 43.68 M192.59 43.68 L283.02 43.68 Q288.02 43.68 288.02 38.68 L288.02 5.0 Q288.02 0.0 293.02 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(393.44,9.11)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,19.57)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              NOQUEUE
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="58.25" height="17.32" y="-8.57" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="49.12631006240845" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="49.12631006240845" x2="98.2526201248169" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 14.57 Q5.0 19.57 10.0 19.57 L20.0 19.57 M78.25 19.57 L88.25 19.57 Q93.25 19.57 93.25 14.57 L93.25 5.0 Q93.25 0.0 98.25 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(506.69,9.11)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              STATE( cvda)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="72.1" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="56.04989719986916" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="56.04989719986916" x2="112.0997943997383" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M92.1 20.11 L102.1 20.11 Q107.1 20.11 107.1 15.11 L107.1 5.0 Q107.1 0.0 112.1 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="70.41375904083253" x2="85.41375904083253" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="378.43741552829744" x2="393.43741552829744" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="491.69003565311436" x2="506.69003565311436" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="618.7898300528527" x2="628.7898300528527" class="syntaxarrow" y1="9.10763931274414" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>ALLOCATELUTYPE61</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="516.6900356531144px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 516.6900356531144 51.80902814865112" height="51.80902814865112px" class="syntaxdiagram"&gt;&lt;defs&gt;&lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+&lt;/style&gt;&lt;/defs&gt;&lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;&lt;g transform="translate(10,9.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;ALLOCATE&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="60.413759040832524" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(85.41375904083253,9.10763931274414)" class="groupchoice"&gt;&lt;g transform="translate(30.145639419555664,0)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;SESSION(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(49.70440464019776,3)"&gt;&lt;text class="syntaxvar"&gt; name&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(79.08203792572021,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="89.95860034227371" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(20,23.56944465637207)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;SYSID(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(34.9798152923584,3)"&gt;&lt;text class="syntaxvar"&gt; systemname&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(99.37331676483154,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="110.24987918138504" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="30.145639419555664" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartChoice" points="30.145639419555664,0 25.145639419555664,2.5 25.145639419555664,-2.5" transform="rotate(0,30.145639419555664,0)"&gt;&lt;/polygon&gt;&lt;line y2="0" x1="120.10423976182938" x2="150.24987918138504" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="145.24987918138504,0 140.24987918138504,2.5 140.24987918138504,-2.5" transform="rotate(0,145.24987918138504,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 18.56944465637207 Q5 23.56944465637207 10 23.56944465637207 L20 23.56944465637207"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,23.56944465637207 15,26.06944465637207 15,21.06944465637207" transform="rotate(0,20,23.56944465637207)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M130.24987918138504 23.56944465637207 L140.24987918138504 23.56944465637207 Q145.24987918138504 23.56944465637207 145.24987918138504 18.56944465637207 L145.24987918138504 5 Q145.24987918138504 0 150.24987918138504 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="145.24987918138504,5 140.24987918138504,7.5 140.24987918138504,2.5" transform="rotate(-90,145.24987918138504,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(250.66363822221757,9.10763931274414)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;PROFILE(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(47.51958160400391,3)"&gt;&lt;text class="syntaxvar"&gt; name&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(76.89721488952637,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="87.77377730607986" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="63.88688865303993" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="63.88688865303993" x2="127.77377730607986" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="122.77377730607986,0 117.77377730607986,2.5 117.77377730607986,-2.5" transform="rotate(0,122.77377730607986,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M107.77377730607986 20.10763931274414 L117.77377730607986 20.10763931274414 Q122.77377730607986 20.10763931274414 122.77377730607986 15.10763931274414 L122.77377730607986 5 Q122.77377730607986 0 127.77377730607986 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="122.77377730607986,5 117.77377730607986,7.5 117.77377730607986,2.5" transform="rotate(-90,122.77377730607986,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(393.43741552829744,9.10763931274414)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20.000000000000004,19.572916984558105)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;NOQUEUE &lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="58.25262012481689" height="17.322916984558105" y="-8.572916984558105" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="49.12631006240845" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="49.12631006240845" x2="98.2526201248169" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="93.2526201248169,0 88.2526201248169,2.5 88.2526201248169,-2.5" transform="rotate(0,93.2526201248169,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.572916984558105 Q5 19.572916984558105 10 19.572916984558105 L20.000000000000004 19.572916984558105"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20.000000000000004,19.572916984558105 15.000000000000004,22.072916984558105 15.000000000000004,17.072916984558105" transform="rotate(0,20.000000000000004,19.572916984558105)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M78.2526201248169 19.572916984558105 L88.2526201248169 19.572916984558105 Q93.2526201248169 19.572916984558105 93.2526201248169 14.572916984558105 L93.2526201248169 5 Q93.2526201248169 0 98.2526201248169 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="93.2526201248169,5 88.2526201248169,7.5 88.2526201248169,2.5" transform="rotate(-90,93.2526201248169,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;polygon class="arrowheadStartEnd" points="0,9.10763931274414 -5,11.60763931274414 -5,6.607639312744141" transform="rotate(0,0,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="5,9.10763931274414 0,11.60763931274414 0,6.607639312744141" transform="rotate(0,5,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;line y2="9.10763931274414" x1="70.41375904083253" x2="85.41375904083253" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="85.41375904083253,9.10763931274414 80.41375904083253,11.60763931274414 80.41375904083253,6.607639312744141" transform="rotate(0,85.41375904083253,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="235.66363822221757" x2="250.66363822221757" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="250.66363822221757,9.10763931274414 245.66363822221757,11.60763931274414 245.66363822221757,6.607639312744141" transform="rotate(0,250.66363822221757,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="378.43741552829744" x2="393.43741552829744" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="393.43741552829744,9.10763931274414 388.43741552829744,11.60763931274414 388.43741552829744,6.607639312744141" transform="rotate(0,393.43741552829744,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="491.69003565311436" x2="501.69003565311436" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="501.69003565311436,9.10763931274414 496.69003565311436,11.60763931274414 496.69003565311436,6.607639312744141" transform="rotate(0,501.69003565311436,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="501.69003565311436,9.10763931274414 496.69003565311436,11.60763931274414 496.69003565311436,6.607639312744141" transform="rotate(180,501.69003565311436,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="516.6900356531144px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 516.6900356531144 51.80902814865112" height="51.80902814865112px" class="syntaxdiagram"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10,9.10763931274414)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0,3)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            ALLOCATE
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3" x="0" width="60.413759040832524" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;
+      &lt;/rect&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(85.41375904083253,9.10763931274414)" class="groupchoice"&gt;
+      &lt;g transform="translate(30.145639419555664,0)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              SESSION(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(49.70440464019776,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               name
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(79.08203792572021,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="89.95860034227371" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,23.56944465637207)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              SYSID(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(34.9798152923584,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               systemname
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(99.37331676483154,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="110.24987918138504" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="30.145639419555664" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadStartChoice" points="30.145639419555664,0 25.145639419555664,2.5 25.145639419555664,-2.5" transform="rotate(0,30.145639419555664,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;line y2="0" x1="120.10423976182938" x2="150.24987918138504" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="145.24987918138504,0 140.24987918138504,2.5 140.24987918138504,-2.5" transform="rotate(0,145.24987918138504,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 18.56944465637207 Q5 23.56944465637207 10 23.56944465637207 L20 23.56944465637207"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,23.56944465637207 15,26.06944465637207 15,21.06944465637207" transform="rotate(0,20,23.56944465637207)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M130.24987918138504 23.56944465637207 L140.24987918138504 23.56944465637207 Q145.24987918138504 23.56944465637207 145.24987918138504 18.56944465637207 L145.24987918138504 5 Q145.24987918138504 0 150.24987918138504 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="145.24987918138504,5 140.24987918138504,7.5 140.24987918138504,2.5" transform="rotate(-90,145.24987918138504,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(250.66363822221757,9.10763931274414)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              PROFILE(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(47.51958160400391,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               name
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(76.89721488952637,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="87.77377730607986" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="63.88688865303993" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="63.88688865303993" x2="127.77377730607986" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="122.77377730607986,0 117.77377730607986,2.5 117.77377730607986,-2.5" transform="rotate(0,122.77377730607986,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M107.77377730607986 20.10763931274414 L117.77377730607986 20.10763931274414 Q122.77377730607986 20.10763931274414 122.77377730607986 15.10763931274414 L122.77377730607986 5 Q122.77377730607986 0 127.77377730607986 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="122.77377730607986,5 117.77377730607986,7.5 117.77377730607986,2.5" transform="rotate(-90,122.77377730607986,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(393.43741552829744,9.10763931274414)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20.000000000000004,19.572916984558105)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              NOQUEUE 
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="58.25262012481689" height="17.322916984558105" y="-8.572916984558105" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="49.12631006240845" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="49.12631006240845" x2="98.2526201248169" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="93.2526201248169,0 88.2526201248169,2.5 88.2526201248169,-2.5" transform="rotate(0,93.2526201248169,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.572916984558105 Q5 19.572916984558105 10 19.572916984558105 L20.000000000000004 19.572916984558105"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20.000000000000004,19.572916984558105 15.000000000000004,22.072916984558105 15.000000000000004,17.072916984558105" transform="rotate(0,20.000000000000004,19.572916984558105)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M78.2526201248169 19.572916984558105 L88.2526201248169 19.572916984558105 Q93.2526201248169 19.572916984558105 93.2526201248169 14.572916984558105 L93.2526201248169 5 Q93.2526201248169 0 98.2526201248169 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="93.2526201248169,5 88.2526201248169,7.5 88.2526201248169,2.5" transform="rotate(-90,93.2526201248169,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;polygon class="arrowheadStartEnd" points="0,9.10763931274414 -5,11.60763931274414 -5,6.607639312744141" transform="rotate(0,0,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="5,9.10763931274414 0,11.60763931274414 0,6.607639312744141" transform="rotate(0,5,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;line y2="9.10763931274414" x1="70.41375904083253" x2="85.41375904083253" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="85.41375904083253,9.10763931274414 80.41375904083253,11.60763931274414 80.41375904083253,6.607639312744141" transform="rotate(0,85.41375904083253,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="235.66363822221757" x2="250.66363822221757" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="250.66363822221757,9.10763931274414 245.66363822221757,11.60763931274414 245.66363822221757,6.607639312744141" transform="rotate(0,250.66363822221757,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="378.43741552829744" x2="393.43741552829744" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="393.43741552829744,9.10763931274414 388.43741552829744,11.60763931274414 388.43741552829744,6.607639312744141" transform="rotate(0,393.43741552829744,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="491.69003565311436" x2="501.69003565311436" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadStartEnd" points="501.69003565311436,9.10763931274414 496.69003565311436,11.60763931274414 496.69003565311436,6.607639312744141" transform="rotate(0,501.69003565311436,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="501.69003565311436,9.10763931274414 496.69003565311436,11.60763931274414 496.69003565311436,6.607639312744141" transform="rotate(180,501.69003565311436,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="516.69px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 516.6900356531144 51.80902814865112" height="51.81px" class="syntaxdiagram"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5.0,5.0)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10.0,9.11)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            ALLOCATE
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3.0" x="0.0" width="60.41" height="15.7" y="-8.57" class="syntaxgroupcomp" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(85.41,9.11)" class="groupchoice"&gt;
+      &lt;g transform="translate(30.15,0.0)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              SESSION( name)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="89.96" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20.0,23.57)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              SYSID( systemname)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="110.25" height="18.24" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="30.145639419555664" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="120.10423976182938" x2="150.24987918138504" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 18.57 Q5.0 23.57 10.0 23.57 L20.0 23.57 M130.25 23.57 L140.25 23.57 Q145.25 23.57 145.25 18.57 L145.25 5.0 Q145.25 0.0 150.25 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(250.66,9.11)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              PROFILE( name)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="87.77" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="63.88688865303993" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="63.88688865303993" x2="127.77377730607986" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M107.77 20.11 L117.77 20.11 Q122.77 20.11 122.77 15.11 L122.77 5.0 Q122.77 0.0 127.77 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(393.44,9.11)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,19.57)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              NOQUEUE 
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="58.25" height="17.32" y="-8.57" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="49.12631006240845" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="49.12631006240845" x2="98.2526201248169" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 14.57 Q5.0 19.57 10.0 19.57 L20.0 19.57 M78.25 19.57 L88.25 19.57 Q93.25 19.57 93.25 14.57 L93.25 5.0 Q93.25 0.0 98.25 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="70.41375904083253" x2="85.41375904083253" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="235.66363822221757" x2="250.66363822221757" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="378.43741552829744" x2="393.43741552829744" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="491.69003565311436" x2="501.69003565311436" class="syntaxarrow" y1="9.10763931274414" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>ALLOCATEMRO</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="603.7898300528527px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 603.7898300528527 47.67708396911621" height="47.67708396911621px" class="syntaxdiagram"&gt;&lt;defs&gt;&lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+&lt;/style&gt;&lt;/defs&gt;&lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;&lt;g transform="translate(10,9.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;ALLOCATE&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="60.413759040832524" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(85.41375904083253,9.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;SYSID(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(34.9798152923584,3)"&gt;&lt;text class="syntaxvar"&gt; systemname&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(99.37331676483154,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="110.24987918138504" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;g transform="translate(210.66363822221757,9.10763931274414)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;PROFILE(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(47.51958160400391,3)"&gt;&lt;text class="syntaxvar"&gt; name&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(76.89721488952637,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="87.77377730607986" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="63.88688865303993" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="63.88688865303993" x2="127.77377730607986" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="122.77377730607986,0 117.77377730607986,2.5 117.77377730607986,-2.5" transform="rotate(0,122.77377730607986,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M107.77377730607986 20.10763931274414 L117.77377730607986 20.10763931274414 Q122.77377730607986 20.10763931274414 122.77377730607986 15.10763931274414 L122.77377730607986 5 Q122.77377730607986 0 127.77377730607986 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="122.77377730607986,5 117.77377730607986,7.5 117.77377730607986,2.5" transform="rotate(-90,122.77377730607986,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(353.43741552829744,9.10763931274414)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20.000000000000004,19.572916984558105)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;NOQUEUE&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="58.25262012481689" height="17.322916984558105" y="-8.572916984558105" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="49.12631006240845" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="49.12631006240845" x2="98.2526201248169" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="93.2526201248169,0 88.2526201248169,2.5 88.2526201248169,-2.5" transform="rotate(0,93.2526201248169,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.572916984558105 Q5 19.572916984558105 10 19.572916984558105 L20.000000000000004 19.572916984558105"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20.000000000000004,19.572916984558105 15.000000000000004,22.072916984558105 15.000000000000004,17.072916984558105" transform="rotate(0,20.000000000000004,19.572916984558105)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M78.2526201248169 19.572916984558105 L88.2526201248169 19.572916984558105 Q93.2526201248169 19.572916984558105 93.2526201248169 14.572916984558105 L93.2526201248169 5 Q93.2526201248169 0 98.2526201248169 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="93.2526201248169,5 88.2526201248169,7.5 88.2526201248169,2.5" transform="rotate(-90,93.2526201248169,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;g transform="translate(466.69003565311436,9.10763931274414)" class="groupseq"&gt;&lt;g&gt;&lt;/g&gt;&lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;&lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;&lt;g class="text" transform="translate(0,3)"&gt;&lt;text class="syntaxkwd"&gt;STATE(&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(36.3570951461792,3)"&gt;&lt;text class="syntaxvar"&gt; cvda&lt;/text&gt;&lt;/g&gt;&lt;g class="text" transform="translate(61.22323198318482,3)"&gt;&lt;text class="syntaxdelim"&gt;)&lt;/text&gt;&lt;/g&gt;&lt;/g&gt;&lt;rect rx="3" x="0" width="72.09979439973831" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;&lt;/rect&gt;&lt;/g&gt;&lt;line y2="0" x1="0" x2="56.04989719986916" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;line y2="0" x1="56.04989719986916" x2="112.0997943997383" class="syntaxarrow" y1="0"&gt;&lt;/line&gt;&lt;polygon class="arrowheadAfterChoice" points="107.0997943997383,0 102.0997943997383,2.5 102.0997943997383,-2.5" transform="rotate(0,107.0997943997383,0)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;&lt;/path&gt;&lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;&lt;/polygon&gt;&lt;path class="syntaxarrow" d="M92.09979439973831 20.10763931274414 L102.09979439973831 20.10763931274414 Q107.09979439973831 20.10763931274414 107.09979439973831 15.10763931274414 L107.09979439973831 5 Q107.09979439973831 0 112.09979439973831 0"&gt;&lt;/path&gt;&lt;polygon class="arrowheadAfterChoice" points="107.09979439973831,5 102.09979439973831,7.5 102.09979439973831,2.5" transform="rotate(-90,107.09979439973831,5)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;polygon class="arrowheadStartEnd" points="0,9.10763931274414 -5,11.60763931274414 -5,6.607639312744141" transform="rotate(0,0,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="5,9.10763931274414 0,11.60763931274414 0,6.607639312744141" transform="rotate(0,5,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;line y2="9.10763931274414" x1="70.41375904083253" x2="85.41375904083253" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="85.41375904083253,9.10763931274414 80.41375904083253,11.60763931274414 80.41375904083253,6.607639312744141" transform="rotate(0,85.41375904083253,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="195.66363822221757" x2="210.66363822221757" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="210.66363822221757,9.10763931274414 205.66363822221757,11.60763931274414 205.66363822221757,6.607639312744141" transform="rotate(0,210.66363822221757,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="338.43741552829744" x2="353.43741552829744" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="353.43741552829744,9.10763931274414 348.43741552829744,11.60763931274414 348.43741552829744,6.607639312744141" transform="rotate(0,353.43741552829744,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="451.69003565311436" x2="466.69003565311436" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadSeq" points="466.69003565311436,9.10763931274414 461.69003565311436,11.60763931274414 461.69003565311436,6.607639312744141" transform="rotate(0,466.69003565311436,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;line y2="9.10763931274414" x1="578.7898300528527" x2="588.7898300528527" class="syntaxarrow" y1="9.10763931274414"&gt;&lt;/line&gt;&lt;polygon class="arrowheadStartEnd" points="588.7898300528527,9.10763931274414 583.7898300528527,11.60763931274414 583.7898300528527,6.607639312744141" transform="rotate(0,588.7898300528527,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;polygon class="arrowheadStartEnd" points="588.7898300528527,9.10763931274414 583.7898300528527,11.60763931274414 583.7898300528527,6.607639312744141" transform="rotate(180,588.7898300528527,9.10763931274414)"&gt;&lt;/polygon&gt;&lt;/g&gt;&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="603.7898300528527px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 603.7898300528527 47.67708396911621" height="47.67708396911621px" class="syntaxdiagram"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5,5)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10,9.10763931274414)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0,3)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            ALLOCATE
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3" x="0" width="60.413759040832524" height="15.70138931274414" y="-8.572916984558105" class="syntaxgroupcomp"&gt;
+      &lt;/rect&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(85.41375904083253,9.10763931274414)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0,3)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            SYSID(
+          &lt;/text&gt;
+        &lt;/g&gt;
+        &lt;g class="text" transform="translate(34.9798152923584,3)"&gt;
+          &lt;text class="syntaxvar"&gt;
+             systemname
+          &lt;/text&gt;
+        &lt;/g&gt;
+        &lt;g class="text" transform="translate(99.37331676483154,3)"&gt;
+          &lt;text class="syntaxdelim"&gt;
+            )
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3" x="0" width="110.24987918138504" height="18.239583492279053" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+      &lt;/rect&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(210.66363822221757,9.10763931274414)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              PROFILE(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(47.51958160400391,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               name
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(76.89721488952637,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="87.77377730607986" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="63.88688865303993" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="63.88688865303993" x2="127.77377730607986" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="122.77377730607986,0 117.77377730607986,2.5 117.77377730607986,-2.5" transform="rotate(0,122.77377730607986,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M107.77377730607986 20.10763931274414 L117.77377730607986 20.10763931274414 Q122.77377730607986 20.10763931274414 122.77377730607986 15.10763931274414 L122.77377730607986 5 Q122.77377730607986 0 127.77377730607986 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="122.77377730607986,5 117.77377730607986,7.5 117.77377730607986,2.5" transform="rotate(-90,122.77377730607986,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(353.43741552829744,9.10763931274414)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20.000000000000004,19.572916984558105)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              NOQUEUE
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="58.25262012481689" height="17.322916984558105" y="-8.572916984558105" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="49.12631006240845" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="49.12631006240845" x2="98.2526201248169" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="93.2526201248169,0 88.2526201248169,2.5 88.2526201248169,-2.5" transform="rotate(0,93.2526201248169,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 14.572916984558105 Q5 19.572916984558105 10 19.572916984558105 L20.000000000000004 19.572916984558105"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20.000000000000004,19.572916984558105 15.000000000000004,22.072916984558105 15.000000000000004,17.072916984558105" transform="rotate(0,20.000000000000004,19.572916984558105)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M78.2526201248169 19.572916984558105 L88.2526201248169 19.572916984558105 Q93.2526201248169 19.572916984558105 93.2526201248169 14.572916984558105 L93.2526201248169 5 Q93.2526201248169 0 98.2526201248169 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="93.2526201248169,5 88.2526201248169,7.5 88.2526201248169,2.5" transform="rotate(-90,93.2526201248169,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(466.69003565311436,9.10763931274414)" class="groupseq"&gt;
+      &lt;g&gt;
+      &lt;/g&gt;
+      &lt;g transform="translate(20,20.10763931274414)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4,0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0,3)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              STATE(
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(36.3570951461792,3)"&gt;
+            &lt;text class="syntaxvar"&gt;
+               cvda
+            &lt;/text&gt;
+          &lt;/g&gt;
+          &lt;g class="text" transform="translate(61.22323198318482,3)"&gt;
+            &lt;text class="syntaxdelim"&gt;
+              )
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3" x="0" width="72.09979439973831" height="17.56944465637207" y="-9.10763931274414" class="syntaxgroupcomp"&gt;
+        &lt;/rect&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="56.04989719986916" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;line y2="0" x1="56.04989719986916" x2="112.0997943997383" class="syntaxarrow" y1="0"&gt;
+      &lt;/line&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="107.0997943997383,0 102.0997943997383,2.5 102.0997943997383,-2.5" transform="rotate(0,107.0997943997383,0)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M0 0 Q5 0 5 5 L5 15.10763931274414 Q5 20.10763931274414 10 20.10763931274414 L20 20.10763931274414"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadStartChoice" points="20,20.10763931274414 15,22.60763931274414 15,17.60763931274414" transform="rotate(0,20,20.10763931274414)"&gt;
+      &lt;/polygon&gt;
+      &lt;path class="syntaxarrow" d="M92.09979439973831 20.10763931274414 L102.09979439973831 20.10763931274414 Q107.09979439973831 20.10763931274414 107.09979439973831 15.10763931274414 L107.09979439973831 5 Q107.09979439973831 0 112.09979439973831 0"&gt;
+      &lt;/path&gt;
+      &lt;polygon class="arrowheadAfterChoice" points="107.09979439973831,5 102.09979439973831,7.5 102.09979439973831,2.5" transform="rotate(-90,107.09979439973831,5)"&gt;
+      &lt;/polygon&gt;
+    &lt;/g&gt;
+    &lt;polygon class="arrowheadStartEnd" points="0,9.10763931274414 -5,11.60763931274414 -5,6.607639312744141" transform="rotate(0,0,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="5,9.10763931274414 0,11.60763931274414 0,6.607639312744141" transform="rotate(0,5,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;line y2="9.10763931274414" x1="70.41375904083253" x2="85.41375904083253" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="85.41375904083253,9.10763931274414 80.41375904083253,11.60763931274414 80.41375904083253,6.607639312744141" transform="rotate(0,85.41375904083253,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="195.66363822221757" x2="210.66363822221757" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="210.66363822221757,9.10763931274414 205.66363822221757,11.60763931274414 205.66363822221757,6.607639312744141" transform="rotate(0,210.66363822221757,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="338.43741552829744" x2="353.43741552829744" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="353.43741552829744,9.10763931274414 348.43741552829744,11.60763931274414 348.43741552829744,6.607639312744141" transform="rotate(0,353.43741552829744,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="451.69003565311436" x2="466.69003565311436" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadSeq" points="466.69003565311436,9.10763931274414 461.69003565311436,11.60763931274414 461.69003565311436,6.607639312744141" transform="rotate(0,466.69003565311436,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;line y2="9.10763931274414" x1="578.7898300528527" x2="588.7898300528527" class="syntaxarrow" y1="9.10763931274414"&gt;
+    &lt;/line&gt;
+    &lt;polygon class="arrowheadStartEnd" points="588.7898300528527,9.10763931274414 583.7898300528527,11.60763931274414 583.7898300528527,6.607639312744141" transform="rotate(0,588.7898300528527,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+    &lt;polygon class="arrowheadStartEnd" points="588.7898300528527,9.10763931274414 583.7898300528527,11.60763931274414 583.7898300528527,6.607639312744141" transform="rotate(180,588.7898300528527,9.10763931274414)"&gt;
+    &lt;/polygon&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>&lt;svg contentscripttype="text/ecmascript" zoomAndPan="magnify" contentstyletype="text/css" version="1.0" width="603.79px" preserveAspectRatio="xMidYMid meet" viewBox="0 0 603.7898300528527 47.67708396911621" height="47.68px" class="syntaxdiagram"&gt;
+  &lt;defs&gt;
+    &lt;style type="text/css" xml:space="preserve"&gt;
+.arrow, .syntaxarrow { fill: none; stroke: black; }
+.arrowheadStartEnd, .arrowheadRepSep, .arrowheadRepSepReturn { stroke: black; fill: black; }
+.arrowheadSeq, .arrowheadStartChoice, .arrowheadAfterChoice, .arrowheadStartRepGroup, .arrowheadEndRepGroup, .arrowheadRev { stroke: none; fill: none; }
+rect { fill: none; stroke: none; }
+rect.fragref,rect.syntaxfragref { fill: none; stroke: black; }
+text {
+fill: #000000;
+fill-opacity: 1;
+font-family: IBM Plex Sans,Arial Unicode MS,Arial,Helvetica;
+font-style: normal;
+font-weight: normal;
+font-size: 8pt;
+stroke: #000000;
+stroke-width: 0.1;
+}
+text.var, text.syntaxvar {font-style:italic;}
+    &lt;/style&gt;
+  &lt;/defs&gt;
+  &lt;g transform="translate(5.0,5.0)" class="diagram" xml:base="..//"&gt;
+    &lt;g transform="translate(10.0,9.11)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            ALLOCATE
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3.0" x="0.0" width="60.41" height="15.7" y="-8.57" class="syntaxgroupcomp" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(85.41,9.11)" class="boxed groupcomp"&gt;
+      &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+        &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+          &lt;text class="syntaxkwd"&gt;
+            SYSID( systemname)
+          &lt;/text&gt;
+        &lt;/g&gt;
+      &lt;/g&gt;
+      &lt;rect rx="3.0" x="0.0" width="110.25" height="18.24" y="-9.11" class="syntaxgroupcomp" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(210.66,9.11)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              PROFILE( name)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="87.77" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="63.88688865303993" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="63.88688865303993" x2="127.77377730607986" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M107.77 20.11 L117.77 20.11 Q122.77 20.11 122.77 15.11 L122.77 5.0 Q122.77 0.0 127.77 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(353.44,9.11)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,19.57)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              NOQUEUE
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="58.25" height="17.32" y="-8.57" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="49.12631006240845" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="49.12631006240845" x2="98.2526201248169" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 14.57 Q5.0 19.57 10.0 19.57 L20.0 19.57 M78.25 19.57 L88.25 19.57 Q93.25 19.57 93.25 14.57 L93.25 5.0 Q93.25 0.0 98.25 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;g transform="translate(466.69,9.11)" class="groupseq"&gt;
+      &lt;g /&gt;
+      &lt;g transform="translate(20.0,20.11)" class="boxed groupcomp"&gt;
+        &lt;g transform="translate(4.0,0.0)" class="unboxed syntaxkwd"&gt;
+          &lt;g class="text" transform="translate(0.0,3.0)"&gt;
+            &lt;text class="syntaxkwd"&gt;
+              STATE( cvda)
+            &lt;/text&gt;
+          &lt;/g&gt;
+        &lt;/g&gt;
+        &lt;rect rx="3.0" x="0.0" width="72.1" height="17.57" y="-9.11" class="syntaxgroupcomp" /&gt;
+      &lt;/g&gt;
+      &lt;line y2="0" x1="0" x2="56.04989719986916" class="syntaxarrow" y1="0" /&gt;
+      &lt;line y2="0" x1="56.04989719986916" x2="112.0997943997383" class="syntaxarrow" y1="0" /&gt;
+      &lt;path class="syntaxarrow" d="M0.0 0.0 Q5.0 0.0 5.0 5.0 L5.0 15.11 Q5.0 20.11 10.0 20.11 L20.0 20.11 M92.1 20.11 L102.1 20.11 Q107.1 20.11 107.1 15.11 L107.1 5.0 Q107.1 0.0 112.1 0.0" /&gt;
+    &lt;/g&gt;
+    &lt;line y2="9.10763931274414" x1="0" x2="10" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="70.41375904083253" x2="85.41375904083253" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="195.66363822221757" x2="210.66363822221757" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="338.43741552829744" x2="353.43741552829744" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="451.69003565311436" x2="466.69003565311436" class="syntaxarrow" y1="9.10763931274414" /&gt;
+    &lt;line y2="9.10763931274414" x1="578.7898300528527" x2="588.7898300528527" class="syntaxarrow" y1="9.10763931274414" /&gt;
+  &lt;/g&gt;
+&lt;/svg&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,17 +2528,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -133,6 +2551,595 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1508760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2609850" cy="1047750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8183880" y="396240"/>
+          <a:ext cx="2609850" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1607820</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2609850" cy="1047750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16520160" y="381000"/>
+          <a:ext cx="2609850" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1706880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>487680</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2428875" cy="542925"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="2194560"/>
+          <a:ext cx="2428875" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1920240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2428875" cy="542925"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16832580" y="2103120"/>
+          <a:ext cx="2428875" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4219575" cy="485775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7482840" y="3611880"/>
+          <a:ext cx="4219575" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1120140</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>518160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4219575" cy="485775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16032480" y="3749040"/>
+          <a:ext cx="4219575" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>541020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4114800" cy="447675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7307580" y="5295900"/>
+          <a:ext cx="4114800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>632460</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4114800" cy="447675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16169640" y="5387340"/>
+          <a:ext cx="4114800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6057900" cy="923925"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6697980" y="6553200"/>
+          <a:ext cx="6057900" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>259080</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6057900" cy="923925"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14973300" y="6537960"/>
+          <a:ext cx="6057900" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6124575" cy="676275"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 11" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6124575" cy="676275"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 12" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>449580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4914900" cy="485775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6995160" y="9776460"/>
+          <a:ext cx="4914900" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4914900" cy="485775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 14" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15354300" y="9822180"/>
+          <a:ext cx="4914900" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>373380</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5743575" cy="447675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6865620" y="11224260"/>
+          <a:ext cx="5743575" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>411480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5743575" cy="447675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15118080" y="11262360"/>
+          <a:ext cx="5743575" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -146,44 +3153,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -210,32 +3217,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -262,24 +3251,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -291,196 +3262,321 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.109375" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
+    <col min="4" max="4" width="90.109375" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="91.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>